--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -11340,6 +11340,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11360,9 +11363,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11429,7 +11429,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11479,7 +11479,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11529,7 +11529,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11579,7 +11579,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11629,7 +11629,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11679,7 +11679,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11729,7 +11729,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11779,7 +11779,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11829,7 +11829,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11879,7 +11879,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11929,7 +11929,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11979,7 +11979,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12029,7 +12029,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12079,7 +12079,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12129,7 +12129,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12179,7 +12179,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12229,7 +12229,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12279,7 +12279,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12329,7 +12329,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12379,7 +12379,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12429,7 +12429,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12479,7 +12479,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12529,7 +12529,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12579,7 +12579,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12629,7 +12629,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12919,7 +12919,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12930,7 +12930,7 @@
   <dimension ref="A1:AA1009"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -12974,17 +12974,17 @@
     </row>
     <row r="2" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="32"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -13005,15 +13005,15 @@
     </row>
     <row r="3" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="33" t="s">
         <v>257</v>
       </c>
@@ -13044,15 +13044,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="32"/>
       <c r="L4" s="19" t="s">
         <v>23</v>
@@ -13075,10 +13075,10 @@
     </row>
     <row r="5" spans="1:27" ht="18" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
@@ -13118,8 +13118,8 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
@@ -13159,8 +13159,8 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
@@ -13200,8 +13200,8 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
@@ -13241,8 +13241,8 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
@@ -13282,8 +13282,8 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
@@ -13323,8 +13323,8 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
@@ -13364,8 +13364,8 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
@@ -13401,10 +13401,10 @@
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
@@ -13444,8 +13444,8 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
@@ -13485,8 +13485,8 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
@@ -13526,8 +13526,8 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
@@ -13567,8 +13567,8 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
@@ -13608,8 +13608,8 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
@@ -13649,8 +13649,8 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
@@ -13690,8 +13690,8 @@
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
@@ -13731,8 +13731,8 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="2" t="s">
         <v>45</v>
       </c>
@@ -13772,8 +13772,8 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="2" t="s">
         <v>46</v>
       </c>
@@ -13813,8 +13813,8 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="2" t="s">
         <v>47</v>
       </c>
@@ -13844,10 +13844,10 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="37" t="s">
+      <c r="U23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="V23" s="37"/>
+      <c r="V23" s="38"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -13856,10 +13856,10 @@
     </row>
     <row r="24" spans="1:27" ht="18" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
@@ -13899,8 +13899,8 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="1" t="s">
         <v>50</v>
       </c>
@@ -13940,8 +13940,8 @@
     </row>
     <row r="26" spans="1:27" ht="18" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
@@ -13981,8 +13981,8 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="3"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
@@ -14022,8 +14022,8 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="3"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
@@ -14065,10 +14065,10 @@
     </row>
     <row r="29" spans="1:27" ht="18" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="40"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="2" t="s">
         <v>56</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="K29" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="L29" s="43" t="s">
+      <c r="L29" s="36" t="s">
         <v>299</v>
       </c>
       <c r="M29" s="19"/>
@@ -14108,8 +14108,8 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="3"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="2" t="s">
         <v>239</v>
       </c>
@@ -14149,8 +14149,8 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="3"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="2" t="s">
         <v>242</v>
       </c>
@@ -14190,8 +14190,8 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="3"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="2" t="s">
         <v>57</v>
       </c>
@@ -14227,8 +14227,8 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="3"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="2" t="s">
         <v>58</v>
       </c>
@@ -14268,8 +14268,8 @@
     </row>
     <row r="34" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
@@ -14309,8 +14309,8 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="3"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="2" t="s">
         <v>60</v>
       </c>
@@ -14350,8 +14350,8 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="3"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
@@ -14387,10 +14387,10 @@
     </row>
     <row r="37" spans="1:27" ht="18" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
@@ -14430,8 +14430,8 @@
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="1" t="s">
         <v>220</v>
       </c>
@@ -14471,8 +14471,8 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="3"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="1" t="s">
         <v>240</v>
       </c>
@@ -14512,8 +14512,8 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="3"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="1" t="s">
         <v>222</v>
       </c>
@@ -14553,8 +14553,8 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="3"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="1" t="s">
         <v>64</v>
       </c>
@@ -14594,8 +14594,8 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="3"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="1" t="s">
         <v>65</v>
       </c>
@@ -14635,8 +14635,8 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="3"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="1" t="s">
         <v>225</v>
       </c>
@@ -14676,8 +14676,8 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="3"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="1" t="s">
         <v>66</v>
       </c>
@@ -14717,8 +14717,8 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="3"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="1" t="s">
         <v>67</v>
       </c>
@@ -14758,10 +14758,10 @@
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="40"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="2" t="s">
         <v>69</v>
       </c>
@@ -14801,8 +14801,8 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="3"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="2" t="s">
         <v>70</v>
       </c>
@@ -14842,8 +14842,8 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="3"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="2" t="s">
         <v>71</v>
       </c>
@@ -14883,8 +14883,8 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="3"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="2" t="s">
         <v>72</v>
       </c>
@@ -14924,10 +14924,10 @@
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="38"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="1" t="s">
         <v>74</v>
       </c>
@@ -14967,8 +14967,8 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="3"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="1" t="s">
         <v>75</v>
       </c>
@@ -15008,8 +15008,8 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="3"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="1" t="s">
         <v>76</v>
       </c>
@@ -15045,8 +15045,8 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="3"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="1" t="s">
         <v>77</v>
       </c>
@@ -15086,8 +15086,8 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="3"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="1" t="s">
         <v>78</v>
       </c>
@@ -15214,13 +15214,13 @@
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -15245,11 +15245,11 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="3"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -42880,10 +42880,10 @@
       </c>
     </row>
     <row r="6" spans="4:6" ht="26" thickTop="1">
-      <c r="D6" s="41">
+      <c r="D6" s="42">
         <v>1</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="42" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -42891,24 +42891,24 @@
       </c>
     </row>
     <row r="7" spans="4:6">
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="26">
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="25.5">
-      <c r="D9" s="41">
+      <c r="D9" s="42">
         <v>2</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -42916,24 +42916,24 @@
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>3</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="42" t="s">
         <v>137</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -42941,24 +42941,24 @@
       </c>
     </row>
     <row r="13" spans="4:6">
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="25">
-      <c r="D15" s="41">
+      <c r="D15" s="42">
         <v>4</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="42" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -42966,24 +42966,24 @@
       </c>
     </row>
     <row r="16" spans="4:6" ht="26">
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="38">
-      <c r="D18" s="41">
+      <c r="D18" s="42">
         <v>5</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="42" t="s">
         <v>139</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -42991,24 +42991,24 @@
       </c>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="41">
+      <c r="D21" s="42">
         <v>6</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="42" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -43016,24 +43016,24 @@
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="38">
-      <c r="D24" s="41">
+      <c r="D24" s="42">
         <v>7</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="42" t="s">
         <v>138</v>
       </c>
       <c r="F24" s="13" t="s">
@@ -43041,24 +43041,24 @@
       </c>
     </row>
     <row r="25" spans="4:6">
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="26">
-      <c r="D27" s="41">
+      <c r="D27" s="42">
         <v>8</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="42" t="s">
         <v>140</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -43066,24 +43066,24 @@
       </c>
     </row>
     <row r="28" spans="4:6" ht="26">
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="4:6">
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="25">
-      <c r="D30" s="41">
+      <c r="D30" s="42">
         <v>9</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -43091,24 +43091,24 @@
       </c>
     </row>
     <row r="31" spans="4:6">
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="4:6">
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="41">
+      <c r="D33" s="42">
         <v>10</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -43116,24 +43116,24 @@
       </c>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="25">
-      <c r="D36" s="41">
+      <c r="D36" s="42">
         <v>11</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="42" t="s">
         <v>141</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -43141,24 +43141,24 @@
       </c>
     </row>
     <row r="37" spans="4:6">
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="4:6">
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="37.5">
-      <c r="D39" s="41">
+      <c r="D39" s="42">
         <v>12</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="42" t="s">
         <v>142</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -43166,24 +43166,24 @@
       </c>
     </row>
     <row r="40" spans="4:6">
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" spans="4:6">
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="25">
-      <c r="D42" s="41">
+      <c r="D42" s="42">
         <v>13</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="42" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -43191,24 +43191,24 @@
       </c>
     </row>
     <row r="43" spans="4:6">
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="75.5">
-      <c r="D45" s="41">
+      <c r="D45" s="42">
         <v>14</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="42" t="s">
         <v>143</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -43216,24 +43216,24 @@
       </c>
     </row>
     <row r="46" spans="4:6" ht="26">
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="4:6">
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="37.5">
-      <c r="D48" s="41">
+      <c r="D48" s="42">
         <v>15</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="42" t="s">
         <v>144</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -43241,24 +43241,24 @@
       </c>
     </row>
     <row r="49" spans="4:6" ht="26">
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="4:6">
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="25">
-      <c r="D51" s="41">
+      <c r="D51" s="42">
         <v>16</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="42" t="s">
         <v>145</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -43266,24 +43266,24 @@
       </c>
     </row>
     <row r="52" spans="4:6">
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" spans="4:6">
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="25">
-      <c r="D54" s="41">
+      <c r="D54" s="42">
         <v>17</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="42" t="s">
         <v>145</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -43291,24 +43291,24 @@
       </c>
     </row>
     <row r="55" spans="4:6">
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="56" spans="4:6">
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57" spans="4:6">
-      <c r="D57" s="41">
+      <c r="D57" s="42">
         <v>18</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F57" s="13" t="s">
@@ -43316,24 +43316,24 @@
       </c>
     </row>
     <row r="58" spans="4:6">
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
       <c r="F58" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="59" spans="4:6">
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
       <c r="F59" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="34">
-      <c r="D60" s="41">
+      <c r="D60" s="42">
         <v>19</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F60" s="16" t="s">
@@ -43341,24 +43341,24 @@
       </c>
     </row>
     <row r="61" spans="4:6">
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
       <c r="F61" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62" spans="4:6">
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
       <c r="F62" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="34">
-      <c r="D63" s="41">
+      <c r="D63" s="42">
         <v>20</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="42" t="s">
         <v>90</v>
       </c>
       <c r="F63" s="16" t="s">
@@ -43366,24 +43366,24 @@
       </c>
     </row>
     <row r="64" spans="4:6">
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
       <c r="F64" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65" spans="4:6">
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
       <c r="F65" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="34">
-      <c r="D66" s="41">
+      <c r="D66" s="42">
         <v>21</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="42" t="s">
         <v>90</v>
       </c>
       <c r="F66" s="16" t="s">
@@ -43391,24 +43391,24 @@
       </c>
     </row>
     <row r="67" spans="4:6" ht="26">
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
       <c r="F67" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="4:6">
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
       <c r="F68" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="34">
-      <c r="D69" s="41">
+      <c r="D69" s="42">
         <v>22</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="42" t="s">
         <v>99</v>
       </c>
       <c r="F69" s="16" t="s">
@@ -43416,24 +43416,24 @@
       </c>
     </row>
     <row r="70" spans="4:6" ht="26">
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="41">
+      <c r="D72" s="42">
         <v>23</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="E72" s="42" t="s">
         <v>121</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -43441,24 +43441,24 @@
       </c>
     </row>
     <row r="73" spans="4:6" ht="26">
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
       <c r="F74" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="41">
+      <c r="D75" s="42">
         <v>24</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -43466,24 +43466,24 @@
       </c>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
       <c r="F76" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="34">
-      <c r="D78" s="41">
+      <c r="D78" s="42">
         <v>25</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F78" s="16" t="s">
@@ -43491,55 +43491,21 @@
       </c>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
       <c r="F79" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
       <c r="F80" s="12" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -43556,6 +43522,40 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -10784,9 +10784,6 @@
     <t>update from POST_TBL set POST_TTL = '게시글제목', POST_DATE = SYSDATE(), POST_CON = '게시글내용' where POST_IDX = '게시글인덱스';</t>
   </si>
   <si>
-    <t>delete PFT, FT from POST_FILE_TBL PFT inner join FILE_TBL FT where POST_IDX = '게시글인덱스'; insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('파일이름', '파일경로', SYSDATE()); insert INTO POST_FILE_TBL (POST_IDX, FILE_IDX) values ('게시글인덱스', LAST_INSERT_ID());</t>
-  </si>
-  <si>
     <t>delete PT, PFT, FT from POST_TABLE PT inner join POST_FILE_TBL PFT on PT.POST_IDX = PFT.POST_IDX inner join FILE_TBL FT on PFT.FILE_IDX = FT.FILE_IDX where PT.POST_IDX = '게시글인덱스';</t>
   </si>
   <si>
@@ -11053,6 +11050,10 @@
   </si>
   <si>
     <t>insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('짤', '파일경로', SYSDATE()); insert into MM_TBL(FILE_IDX, MEM_ID) values (LAST_INSERT_ID(), '업로드한회원ID'); insert into STAR_MM_TBL(STAR_IDX, MM_IDX) values ('연예인 인덱스1',LAST_INSERT_ID()), ('연예인 인덱스1',LAST_INSERT_ID()), ....;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete PFT, FT from POST_FILE_TBL PFT inner join FILE_TBL FT on PFT.FILE_IDX = FT.FILE_IDX where POST_IDX = '게시글인덱스'; insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('파일이름', '파일경로', SYSDATE()); insert INTO POST_FILE_TBL (POST_IDX, FILE_IDX) values ('게시글인덱스', LAST_INSERT_ID());</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11429,7 +11430,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11479,7 +11480,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11529,7 +11530,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11579,7 +11580,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11629,7 +11630,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11679,7 +11680,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11729,7 +11730,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11779,7 +11780,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11829,7 +11830,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11879,7 +11880,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11929,7 +11930,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11979,7 +11980,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12029,7 +12030,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12079,7 +12080,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12129,7 +12130,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12179,7 +12180,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12229,7 +12230,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12279,7 +12280,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12329,7 +12330,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12379,7 +12380,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12429,7 +12430,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12479,7 +12480,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12529,7 +12530,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12579,7 +12580,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12629,7 +12630,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12919,7 +12920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12929,8 +12930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13015,7 +13016,7 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L3" s="20" t="s">
         <v>19</v>
@@ -13095,10 +13096,10 @@
         <v>28</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -13136,7 +13137,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>0</v>
@@ -13177,7 +13178,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>1</v>
@@ -13218,7 +13219,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>2</v>
@@ -13259,7 +13260,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>100</v>
@@ -13300,7 +13301,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>3</v>
@@ -13341,7 +13342,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>4</v>
@@ -13421,10 +13422,10 @@
         <v>28</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -13462,10 +13463,10 @@
         <v>28</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -13503,7 +13504,7 @@
         <v>28</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>5</v>
@@ -13544,7 +13545,7 @@
         <v>28</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>6</v>
@@ -13585,7 +13586,7 @@
         <v>28</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>7</v>
@@ -13626,7 +13627,7 @@
         <v>28</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>8</v>
@@ -13667,7 +13668,7 @@
         <v>28</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>9</v>
@@ -13708,7 +13709,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>10</v>
@@ -13749,7 +13750,7 @@
         <v>28</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>11</v>
@@ -13790,7 +13791,7 @@
         <v>28</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>12</v>
@@ -13831,7 +13832,7 @@
         <v>28</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>13</v>
@@ -13876,10 +13877,10 @@
         <v>28</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
@@ -13917,7 +13918,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>14</v>
@@ -13958,7 +13959,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>15</v>
@@ -13999,7 +14000,7 @@
         <v>28</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>16</v>
@@ -14040,7 +14041,7 @@
         <v>28</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>17</v>
@@ -14085,10 +14086,10 @@
         <v>28</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
@@ -14111,7 +14112,7 @@
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -14126,10 +14127,10 @@
         <v>28</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -14152,7 +14153,7 @@
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
       <c r="D31" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -14167,10 +14168,10 @@
         <v>28</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
@@ -14245,10 +14246,10 @@
         <v>28</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -14286,10 +14287,10 @@
         <v>28</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
@@ -14327,10 +14328,10 @@
         <v>28</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
@@ -14407,7 +14408,7 @@
         <v>28</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L37" s="19" t="s">
         <v>223</v>
@@ -14448,7 +14449,7 @@
         <v>28</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L38" s="19" t="s">
         <v>221</v>
@@ -14474,7 +14475,7 @@
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -14489,10 +14490,10 @@
         <v>28</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
@@ -14530,10 +14531,10 @@
         <v>28</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
@@ -14571,7 +14572,7 @@
         <v>28</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L41" s="19" t="s">
         <v>224</v>
@@ -14612,7 +14613,7 @@
         <v>28</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>226</v>
@@ -14653,10 +14654,10 @@
         <v>28</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -14694,10 +14695,10 @@
         <v>28</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -14735,10 +14736,10 @@
         <v>28</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -14778,10 +14779,10 @@
         <v>28</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -14819,10 +14820,10 @@
         <v>28</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
@@ -14860,10 +14861,10 @@
         <v>28</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
@@ -14901,10 +14902,10 @@
         <v>28</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
@@ -14944,10 +14945,10 @@
         <v>28</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -14985,10 +14986,10 @@
         <v>28</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -15063,10 +15064,10 @@
         <v>28</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
@@ -15104,10 +15105,10 @@
         <v>28</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -43506,6 +43507,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -43522,40 +43557,6 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>update MEM_TBL M LEFT OUTER JOIN FILE_TBL F ON M.FILE_IDX = F.FILE_IDX SET M.MEM_PWD = hex(aes_encrypt('암호 문자열', '암호화 키')), M.MEM_NICK = '닉네임', M.MEM_NM = '이름', F.FILE_PATH = '파일경로' where M.MEM_ID = '아이디';</t>
-  </si>
-  <si>
-    <t>update MEM_TBL set MEM_STAT = '회원' where MEM_ID = '아이디';</t>
   </si>
   <si>
     <t>select M.MEM_ID, M.MEM_NICK, M.MEM_NM, M.MEM_STAT, F.FILE_PATH from MEM_TBL M inner join FILE_TBL F on M.FILE_IDX = F.FILE_IDX where M.MEM_ID = 'ID' and M.ACVT = TRUE and M.MEM_PWD = hex(aes_encrypt('PWD', '암호화 키'));</t>
@@ -11056,6 +11053,10 @@
     <t>delete PFT, FT from POST_FILE_TBL PFT inner join FILE_TBL FT on PFT.FILE_IDX = FT.FILE_IDX where POST_IDX = '게시글인덱스'; insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('파일이름', '파일경로', SYSDATE()); insert INTO POST_FILE_TBL (POST_IDX, FILE_IDX) values ('게시글인덱스', LAST_INSERT_ID());</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>update MEM_TBL set MEM_STAT = 1 where MEM_ID = '아이디';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -11430,7 +11431,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11480,7 +11481,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11530,7 +11531,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11580,7 +11581,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11630,7 +11631,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11680,7 +11681,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11730,7 +11731,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11780,7 +11781,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11830,7 +11831,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11880,7 +11881,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11930,7 +11931,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11980,7 +11981,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12030,7 +12031,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12080,7 +12081,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12130,7 +12131,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12180,7 +12181,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12230,7 +12231,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12280,7 +12281,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12330,7 +12331,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12380,7 +12381,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12430,7 +12431,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12480,7 +12481,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12530,7 +12531,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12580,7 +12581,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12630,7 +12631,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12920,7 +12921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12930,8 +12931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -12976,7 +12977,7 @@
     <row r="2" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -13016,19 +13017,19 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="23" t="s">
         <v>21</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>22</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -13056,7 +13057,7 @@
       <c r="J4" s="40"/>
       <c r="K4" s="32"/>
       <c r="L4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
@@ -13077,29 +13078,29 @@
     <row r="5" spans="1:27" ht="18" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -13122,22 +13123,22 @@
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K6" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>0</v>
@@ -13163,22 +13164,22 @@
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="J7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K7" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>1</v>
@@ -13204,22 +13205,22 @@
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="J8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K8" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>2</v>
@@ -13245,25 +13246,25 @@
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K9" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -13286,25 +13287,25 @@
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="J10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K10" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>3</v>
+        <v>299</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
@@ -13327,25 +13328,25 @@
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K11" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
@@ -13368,19 +13369,19 @@
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="19"/>
@@ -13403,29 +13404,29 @@
     <row r="13" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="J13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K13" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -13448,25 +13449,25 @@
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="J14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K14" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -13489,25 +13490,25 @@
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="J15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K15" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -13530,25 +13531,25 @@
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K16" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -13571,25 +13572,25 @@
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K17" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -13612,25 +13613,25 @@
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="J18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K18" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -13653,25 +13654,25 @@
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="J19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K19" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -13694,25 +13695,25 @@
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="J20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K20" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -13735,25 +13736,25 @@
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="J21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K21" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -13776,25 +13777,25 @@
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K22" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
@@ -13817,25 +13818,25 @@
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="J23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K23" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
@@ -13846,7 +13847,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V23" s="38"/>
       <c r="W23" s="3"/>
@@ -13858,29 +13859,29 @@
     <row r="24" spans="1:27" ht="18" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="J24" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K24" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
@@ -13903,25 +13904,25 @@
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="J25" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K25" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
@@ -13944,25 +13945,25 @@
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="J26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K26" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
@@ -13985,25 +13986,25 @@
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K27" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
@@ -14026,25 +14027,25 @@
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="J28" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K28" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -14052,7 +14053,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -14067,29 +14068,29 @@
     <row r="29" spans="1:27" ht="18" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="J29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K29" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
@@ -14112,25 +14113,25 @@
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="J30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K30" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -14153,25 +14154,25 @@
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="J31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K31" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
@@ -14194,19 +14195,19 @@
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="J32" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="K32" s="34"/>
       <c r="L32" s="19"/>
@@ -14231,25 +14232,25 @@
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
       <c r="D33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="J33" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K33" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -14272,25 +14273,25 @@
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="J34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K34" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
@@ -14313,25 +14314,25 @@
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="J35" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K35" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
@@ -14354,19 +14355,19 @@
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="J36" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="19"/>
@@ -14389,29 +14390,29 @@
     <row r="37" spans="1:27" ht="18" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="J37" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K37" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
@@ -14434,25 +14435,25 @@
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="J38" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K38" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
@@ -14475,25 +14476,25 @@
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="J39" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K39" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
@@ -14516,25 +14517,25 @@
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="J40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K40" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
@@ -14557,25 +14558,25 @@
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="J41" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K41" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
@@ -14598,25 +14599,25 @@
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="J42" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K42" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
@@ -14639,25 +14640,25 @@
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="J43" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K43" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -14680,25 +14681,25 @@
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="J44" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K44" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -14721,25 +14722,25 @@
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="J45" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K45" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -14760,29 +14761,29 @@
     <row r="46" spans="1:27" ht="18" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
       <c r="H46" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="J46" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K46" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -14805,25 +14806,25 @@
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="J47" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="K47" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
@@ -14846,25 +14847,25 @@
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
       <c r="H48" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="J48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K48" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
@@ -14887,25 +14888,25 @@
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="J49" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K49" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
@@ -14926,29 +14927,29 @@
     <row r="50" spans="1:27" ht="18" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="H50" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="J50" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K50" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -14971,25 +14972,25 @@
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="H51" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="J51" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K51" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -15012,19 +15013,19 @@
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
       <c r="H52" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="J52" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="K52" s="34"/>
       <c r="L52" s="19"/>
@@ -15049,25 +15050,25 @@
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
       <c r="H53" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="J53" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K53" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
@@ -15090,25 +15091,25 @@
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
       <c r="H54" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="J54" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="K54" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -15216,7 +15217,7 @@
     <row r="58" spans="1:27" ht="18" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -15279,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -15312,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -15345,7 +15346,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -42871,13 +42872,13 @@
   <sheetData>
     <row r="5" spans="4:6" ht="17.5" thickBot="1">
       <c r="D5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="26" thickTop="1">
@@ -42885,24 +42886,24 @@
         <v>1</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="26">
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="25.5">
@@ -42910,24 +42911,24 @@
         <v>2</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="4:6">
@@ -42935,24 +42936,24 @@
         <v>3</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
       <c r="F13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="25">
@@ -42960,24 +42961,24 @@
         <v>4</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="26">
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
       <c r="F17" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="38">
@@ -42985,24 +42986,24 @@
         <v>5</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
       <c r="F19" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="4:6">
@@ -43010,24 +43011,24 @@
         <v>6</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="38">
@@ -43035,24 +43036,24 @@
         <v>7</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
       <c r="F25" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="26">
@@ -43060,24 +43061,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="4:6" ht="26">
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
       <c r="F28" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
       <c r="F29" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="25">
@@ -43085,24 +43086,24 @@
         <v>9</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="4:6">
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
       <c r="F32" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="4:6">
@@ -43110,24 +43111,24 @@
         <v>10</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="4:6">
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="25">
@@ -43135,24 +43136,24 @@
         <v>11</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="4:6">
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="4:6">
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="37.5">
@@ -43160,24 +43161,24 @@
         <v>12</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="4:6">
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="4:6">
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="25">
@@ -43185,24 +43186,24 @@
         <v>13</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="4:6">
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="4:6">
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="75.5">
@@ -43210,24 +43211,24 @@
         <v>14</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="26">
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="4:6">
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="37.5">
@@ -43235,24 +43236,24 @@
         <v>15</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="26">
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="25">
@@ -43260,24 +43261,24 @@
         <v>16</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="4:6">
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="4:6">
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="25">
@@ -43285,24 +43286,24 @@
         <v>17</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="4:6">
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="4:6">
@@ -43310,24 +43311,24 @@
         <v>18</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="34">
@@ -43335,24 +43336,24 @@
         <v>19</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="4:6">
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="34">
@@ -43360,24 +43361,24 @@
         <v>20</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="4:6">
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="34">
@@ -43385,24 +43386,24 @@
         <v>21</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="4:6" ht="26">
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="4:6">
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="34">
@@ -43410,24 +43411,24 @@
         <v>22</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="26">
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="4:6">
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="4:6">
@@ -43435,24 +43436,24 @@
         <v>23</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="4:6" ht="26">
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="4:6">
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="4:6">
@@ -43460,24 +43461,24 @@
         <v>24</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="4:6">
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="4:6">
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="34">
@@ -43485,62 +43486,28 @@
         <v>25</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="4:6">
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="4:6">
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -43557,6 +43524,40 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43579,12 +43580,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -43637,12 +43638,12 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -43650,7 +43651,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -43658,7 +43659,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -43666,12 +43667,12 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -43679,12 +43680,12 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -43692,7 +43693,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -43700,17 +43701,17 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -43718,12 +43719,12 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -43731,22 +43732,22 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="B105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="B106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -43754,7 +43755,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -43762,7 +43763,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -43770,7 +43771,7 @@
         <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -43778,12 +43779,12 @@
         <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="B157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -43791,12 +43792,12 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -43804,12 +43805,12 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="B182" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -43817,12 +43818,12 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="B193" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -43830,12 +43831,12 @@
         <v>18</v>
       </c>
       <c r="B203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="B204" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -43843,17 +43844,17 @@
         <v>19</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="B215" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="B216" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -43861,7 +43862,7 @@
         <v>20</v>
       </c>
       <c r="B230" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -43869,7 +43870,7 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -43877,12 +43878,12 @@
         <v>22</v>
       </c>
       <c r="B254" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="B255" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -43890,12 +43891,12 @@
         <v>23</v>
       </c>
       <c r="B266" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="B267" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -43903,17 +43904,17 @@
         <v>24</v>
       </c>
       <c r="B280" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="B281" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="B282" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -43921,12 +43922,12 @@
         <v>25</v>
       </c>
       <c r="B293" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="B294" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="304">
   <si>
     <t>select MEM_ID, MEM_NICK, MEM_NM from MEM_TBL limit 10 offset N;</t>
   </si>
@@ -11057,6 +11057,22 @@
     <t>update MEM_TBL set MEM_STAT = 1 where MEM_ID = '아이디';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>url 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**/view : 뷰 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**/*.go : 세션 확인이 필요한 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**/*/do : 뷰가 아닌 동작 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -11267,7 +11283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11366,6 +11382,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11431,7 +11448,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11481,7 +11498,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11531,7 +11548,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11581,7 +11598,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11631,7 +11648,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11681,7 +11698,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11731,7 +11748,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11781,7 +11798,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11831,7 +11848,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11881,7 +11898,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11931,7 +11948,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11981,7 +11998,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12031,7 +12048,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12081,7 +12098,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12131,7 +12148,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12181,7 +12198,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12231,7 +12248,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12281,7 +12298,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12331,7 +12348,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12381,7 +12398,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12431,7 +12448,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12481,7 +12498,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12531,7 +12548,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12581,7 +12598,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12631,7 +12648,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12921,7 +12938,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12929,10 +12946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1009"/>
+  <dimension ref="A1:AA1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -12946,162 +12963,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" ht="18" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="B1" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="B2" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="B3" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="44" customFormat="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" ht="18" customHeight="1">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+    </row>
+    <row r="5" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>246</v>
-      </c>
+      <c r="B5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
@@ -13118,34 +13039,32 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -13159,30 +13078,20 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="18" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>1</v>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -13200,30 +13109,32 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="18" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="39" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="39"/>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -13246,7 +13157,7 @@
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -13254,17 +13165,17 @@
       <c r="H9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>99</v>
+        <v>257</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -13287,12 +13198,12 @@
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="27" t="s">
@@ -13302,10 +13213,10 @@
         <v>27</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
@@ -13328,25 +13239,25 @@
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
@@ -13369,7 +13280,7 @@
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -13383,8 +13294,12 @@
       <c r="J12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="19"/>
+      <c r="K12" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
@@ -13401,32 +13316,30 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="17.399999999999999" customHeight="1">
+    <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -13446,28 +13359,28 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -13487,29 +13400,25 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
@@ -13526,12 +13435,14 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="41"/>
+      <c r="B16" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="41"/>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -13539,17 +13450,17 @@
       <c r="H16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>5</v>
+        <v>295</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -13572,7 +13483,7 @@
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -13580,17 +13491,17 @@
       <c r="H17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -13613,7 +13524,7 @@
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -13621,17 +13532,17 @@
       <c r="H18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -13654,7 +13565,7 @@
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -13662,17 +13573,17 @@
       <c r="H19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="26" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -13690,12 +13601,12 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27" ht="18" customHeight="1">
+    <row r="20" spans="1:27">
       <c r="A20" s="3"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -13703,17 +13614,17 @@
       <c r="H20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="26" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -13736,7 +13647,7 @@
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -13751,10 +13662,10 @@
         <v>27</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -13777,7 +13688,7 @@
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -13785,17 +13696,17 @@
       <c r="H22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
@@ -13813,12 +13724,12 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="18" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -13826,17 +13737,17 @@
       <c r="H23" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
@@ -13846,28 +13757,24 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="V23" s="38"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="18" customHeight="1">
+    <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="26" t="s">
         <v>25</v>
       </c>
@@ -13878,10 +13785,10 @@
         <v>27</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
@@ -13901,28 +13808,28 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>13</v>
+        <v>268</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
@@ -13940,16 +13847,16 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="18" customHeight="1">
+    <row r="26" spans="1:27">
       <c r="A26" s="3"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="26" t="s">
         <v>25</v>
       </c>
@@ -13960,10 +13867,10 @@
         <v>27</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
@@ -13973,20 +13880,24 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="U26" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="V26" s="38"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="18" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="39"/>
+      <c r="B27" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" s="39"/>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -14001,10 +13912,10 @@
         <v>27</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
@@ -14027,7 +13938,7 @@
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -14042,19 +13953,17 @@
         <v>27</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>16</v>
+        <v>270</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -14067,16 +13976,14 @@
     </row>
     <row r="29" spans="1:27" ht="18" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="26" t="s">
         <v>25</v>
       </c>
@@ -14087,10 +13994,10 @@
         <v>27</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="L29" s="36" t="s">
-        <v>297</v>
+        <v>271</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
@@ -14110,28 +14017,28 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="3"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>241</v>
+        <v>272</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -14151,35 +14058,37 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="3"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>242</v>
+        <v>273</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -14190,12 +14099,14 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" ht="18" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="41"/>
+      <c r="B32" s="41" t="s">
+        <v>54</v>
+      </c>
       <c r="C32" s="41"/>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -14206,11 +14117,15 @@
       <c r="I32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="19"/>
+      <c r="K32" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>297</v>
+      </c>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
@@ -14232,25 +14147,25 @@
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -14268,30 +14183,30 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="1:27">
       <c r="A34" s="3"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
@@ -14314,7 +14229,7 @@
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -14325,15 +14240,11 @@
       <c r="I35" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>245</v>
-      </c>
+      <c r="K35" s="34"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
@@ -14355,22 +14266,26 @@
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="19"/>
+      <c r="K36" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>243</v>
+      </c>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
@@ -14387,32 +14302,30 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
-    <row r="37" spans="1:27" ht="18" customHeight="1">
+    <row r="37" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="26" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
@@ -14430,16 +14343,16 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" spans="1:27" ht="18" customHeight="1">
+    <row r="38" spans="1:27">
       <c r="A38" s="3"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="26" t="s">
         <v>25</v>
       </c>
@@ -14450,10 +14363,10 @@
         <v>27</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
@@ -14473,14 +14386,14 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="3"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="26" t="s">
         <v>25</v>
       </c>
@@ -14490,12 +14403,8 @@
       <c r="J39" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>239</v>
-      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
@@ -14512,12 +14421,14 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" ht="18" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="39"/>
+      <c r="B40" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="C40" s="39"/>
       <c r="D40" s="1" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -14528,14 +14439,14 @@
       <c r="I40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
@@ -14553,12 +14464,12 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" ht="18" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="1" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -14569,14 +14480,14 @@
       <c r="I41" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
@@ -14599,7 +14510,7 @@
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -14607,17 +14518,17 @@
       <c r="H42" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I42" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J42" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
@@ -14640,7 +14551,7 @@
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -14648,17 +14559,17 @@
       <c r="H43" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -14681,7 +14592,7 @@
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -14689,17 +14600,17 @@
       <c r="H44" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -14722,7 +14633,7 @@
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -14730,17 +14641,17 @@
       <c r="H45" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="I45" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -14758,32 +14669,30 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
     </row>
-    <row r="46" spans="1:27" ht="18" customHeight="1">
+    <row r="46" spans="1:27">
       <c r="A46" s="3"/>
-      <c r="B46" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
       <c r="H46" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -14803,28 +14712,28 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="3"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="I47" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J47" s="26" t="s">
+      <c r="J47" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
@@ -14844,28 +14753,28 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="3"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="26" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
@@ -14883,12 +14792,14 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" ht="18" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="41"/>
+      <c r="B49" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="C49" s="41"/>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -14896,17 +14807,17 @@
       <c r="H49" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="26" t="s">
         <v>26</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
@@ -14924,32 +14835,30 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
     </row>
-    <row r="50" spans="1:27" ht="18" customHeight="1">
+    <row r="50" spans="1:27">
       <c r="A50" s="3"/>
-      <c r="B50" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I50" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -14969,28 +14878,28 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="3"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="I51" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -15010,25 +14919,29 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="3"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="I52" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J52" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="34"/>
-      <c r="L52" s="19"/>
+      <c r="K52" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>232</v>
+      </c>
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
@@ -15045,12 +14958,14 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" ht="18" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="39"/>
+      <c r="B53" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="C53" s="39"/>
       <c r="D53" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -15058,17 +14973,17 @@
       <c r="H53" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="26" t="s">
         <v>26</v>
       </c>
       <c r="J53" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
@@ -15091,7 +15006,7 @@
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -15099,17 +15014,17 @@
       <c r="H54" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="26" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -15129,20 +15044,28 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="34"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -15158,20 +15081,32 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -15187,20 +15122,32 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -15214,15 +15161,13 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" spans="1:27" ht="18" customHeight="1">
+    <row r="58" spans="1:27">
       <c r="A58" s="3"/>
-      <c r="B58" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -15247,11 +15192,11 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="3"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -15274,14 +15219,10 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
-    <row r="60" spans="1:27" ht="34">
+    <row r="60" spans="1:27">
       <c r="A60" s="3"/>
-      <c r="B60" s="7">
-        <v>1</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>79</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -15307,17 +15248,15 @@
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
     </row>
-    <row r="61" spans="1:27" ht="34">
+    <row r="61" spans="1:27" ht="18" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="7">
-        <v>2</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="B61" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -15340,17 +15279,13 @@
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
     </row>
-    <row r="62" spans="1:27" ht="34">
+    <row r="62" spans="1:27">
       <c r="A62" s="3"/>
-      <c r="B62" s="8">
-        <v>3</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -15373,13 +15308,17 @@
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" ht="34">
       <c r="A63" s="3"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -15402,10 +15341,14 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" ht="34">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="7">
+        <v>2</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -15431,13 +15374,17 @@
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" ht="34">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="8">
+        <v>3</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -15462,11 +15409,11 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -16592,91 +16539,91 @@
       <c r="AA104" s="3"/>
     </row>
     <row r="105" spans="1:27">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
       <c r="K105" s="31"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-      <c r="O105" s="10"/>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="10"/>
-      <c r="R105" s="10"/>
-      <c r="S105" s="10"/>
-      <c r="T105" s="10"/>
-      <c r="U105" s="10"/>
-      <c r="V105" s="10"/>
-      <c r="W105" s="10"/>
-      <c r="X105" s="10"/>
-      <c r="Y105" s="10"/>
-      <c r="Z105" s="10"/>
-      <c r="AA105" s="10"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
     </row>
     <row r="106" spans="1:27">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
       <c r="K106" s="31"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
-      <c r="X106" s="10"/>
-      <c r="Y106" s="10"/>
-      <c r="Z106" s="10"/>
-      <c r="AA106" s="10"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
     </row>
     <row r="107" spans="1:27">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
       <c r="K107" s="31"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="10"/>
-      <c r="R107" s="10"/>
-      <c r="S107" s="10"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="10"/>
-      <c r="W107" s="10"/>
-      <c r="X107" s="10"/>
-      <c r="Y107" s="10"/>
-      <c r="Z107" s="10"/>
-      <c r="AA107" s="10"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="10"/>
@@ -42836,18 +42783,105 @@
       <c r="Z1009" s="10"/>
       <c r="AA1009" s="10"/>
     </row>
+    <row r="1010" spans="1:27">
+      <c r="A1010" s="10"/>
+      <c r="B1010" s="10"/>
+      <c r="C1010" s="10"/>
+      <c r="D1010" s="10"/>
+      <c r="E1010" s="10"/>
+      <c r="F1010" s="10"/>
+      <c r="G1010" s="10"/>
+      <c r="H1010" s="10"/>
+      <c r="I1010" s="10"/>
+      <c r="J1010" s="10"/>
+      <c r="K1010" s="31"/>
+      <c r="L1010" s="10"/>
+      <c r="M1010" s="10"/>
+      <c r="N1010" s="10"/>
+      <c r="O1010" s="10"/>
+      <c r="P1010" s="10"/>
+      <c r="Q1010" s="10"/>
+      <c r="R1010" s="10"/>
+      <c r="S1010" s="10"/>
+      <c r="T1010" s="10"/>
+      <c r="U1010" s="10"/>
+      <c r="V1010" s="10"/>
+      <c r="W1010" s="10"/>
+      <c r="X1010" s="10"/>
+      <c r="Y1010" s="10"/>
+      <c r="Z1010" s="10"/>
+      <c r="AA1010" s="10"/>
+    </row>
+    <row r="1011" spans="1:27">
+      <c r="A1011" s="10"/>
+      <c r="B1011" s="10"/>
+      <c r="C1011" s="10"/>
+      <c r="D1011" s="10"/>
+      <c r="E1011" s="10"/>
+      <c r="F1011" s="10"/>
+      <c r="G1011" s="10"/>
+      <c r="H1011" s="10"/>
+      <c r="I1011" s="10"/>
+      <c r="J1011" s="10"/>
+      <c r="K1011" s="31"/>
+      <c r="L1011" s="10"/>
+      <c r="M1011" s="10"/>
+      <c r="N1011" s="10"/>
+      <c r="O1011" s="10"/>
+      <c r="P1011" s="10"/>
+      <c r="Q1011" s="10"/>
+      <c r="R1011" s="10"/>
+      <c r="S1011" s="10"/>
+      <c r="T1011" s="10"/>
+      <c r="U1011" s="10"/>
+      <c r="V1011" s="10"/>
+      <c r="W1011" s="10"/>
+      <c r="X1011" s="10"/>
+      <c r="Y1011" s="10"/>
+      <c r="Z1011" s="10"/>
+      <c r="AA1011" s="10"/>
+    </row>
+    <row r="1012" spans="1:27">
+      <c r="A1012" s="10"/>
+      <c r="B1012" s="10"/>
+      <c r="C1012" s="10"/>
+      <c r="D1012" s="10"/>
+      <c r="E1012" s="10"/>
+      <c r="F1012" s="10"/>
+      <c r="G1012" s="10"/>
+      <c r="H1012" s="10"/>
+      <c r="I1012" s="10"/>
+      <c r="J1012" s="10"/>
+      <c r="K1012" s="31"/>
+      <c r="L1012" s="10"/>
+      <c r="M1012" s="10"/>
+      <c r="N1012" s="10"/>
+      <c r="O1012" s="10"/>
+      <c r="P1012" s="10"/>
+      <c r="Q1012" s="10"/>
+      <c r="R1012" s="10"/>
+      <c r="S1012" s="10"/>
+      <c r="T1012" s="10"/>
+      <c r="U1012" s="10"/>
+      <c r="V1012" s="10"/>
+      <c r="W1012" s="10"/>
+      <c r="X1012" s="10"/>
+      <c r="Y1012" s="10"/>
+      <c r="Z1012" s="10"/>
+      <c r="AA1012" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B58:F59"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="B5:C12"/>
-    <mergeCell ref="B2:J4"/>
-    <mergeCell ref="B13:C23"/>
-    <mergeCell ref="B24:C28"/>
-    <mergeCell ref="B29:C36"/>
-    <mergeCell ref="B37:C45"/>
-    <mergeCell ref="B46:C49"/>
-    <mergeCell ref="B50:C54"/>
+    <mergeCell ref="B61:F62"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="B8:C15"/>
+    <mergeCell ref="B5:J7"/>
+    <mergeCell ref="B16:C26"/>
+    <mergeCell ref="B27:C31"/>
+    <mergeCell ref="B32:C39"/>
+    <mergeCell ref="B40:C48"/>
+    <mergeCell ref="B49:C52"/>
+    <mergeCell ref="B53:C57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43508,6 +43542,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -43524,40 +43592,6 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -21,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="305">
   <si>
     <t>select MEM_ID, MEM_NICK, MEM_NM from MEM_TBL limit 10 offset N;</t>
   </si>
   <si>
     <t>select M.MEM_ID, M.MEM_NICK, M.MEM_NM, M.MEM_STAT, M.ACVT, F.FILE_PATH from MEM_TBL M inner join FILE_TBL F on M.FILE_IDX = F.FILE_IDX where M.MEM_ID = '아이디';</t>
-  </si>
-  <si>
-    <t>update MEM_TBL M LEFT OUTER JOIN FILE_TBL F ON M.FILE_IDX = F.FILE_IDX SET M.MEM_PWD = hex(aes_encrypt('암호 문자열', '암호화 키')), M.MEM_NICK = '닉네임', M.MEM_NM = '이름', F.FILE_PATH = '파일경로' where M.MEM_ID = '아이디';</t>
   </si>
   <si>
     <t>select M.MEM_ID, M.MEM_NICK, M.MEM_NM, M.MEM_STAT, F.FILE_PATH from MEM_TBL M inner join FILE_TBL F on M.FILE_IDX = F.FILE_IDX where M.MEM_ID = 'ID' and M.ACVT = TRUE and M.MEM_PWD = hex(aes_encrypt('PWD', '암호화 키'));</t>
@@ -38,28 +35,13 @@
     <t>select S.STAR_IDX, S.STAR_NM, S.STAR_TYP, S.STAR_DBT_DATE, S.CMPY_NM, F.FILE_PATH FROM STAR_TBL S inner join FILE_TBL F on S.FILE_IDX = F.FILE_IDX limit 10 offset N;</t>
   </si>
   <si>
-    <t>select S.STAR_MEM_IDX, S.STAR_MEM_HGHT, S.STAR_MEM_AGE, S.STAR_MEM_BLD, S.STAR_MEM_WGHT, S.STAR_MEM_BIRTH, GS.STAR_NM, GS.STAR_TYP from STAR_MEM_TBL S right outer join GRP_TBL G on S.GRP_IDX = G.GRP_IDX right outer join STAR_TBL GS on G.STAR_IDX = GS.STAR_IDX where S.STAR_IDX = '인덱스' and GS.STAR_TYP='TYP';</t>
-  </si>
-  <si>
     <t>select G.GRP_IDX, G.CLB_SITE from GRP_TBL G inner join STAR_TBL S on G.STAR_IDX = S.STAR_IDX where G.STAR_IDX = '인덱스';</t>
-  </si>
-  <si>
-    <t>update STAR_MEM_TBL SM inner join STAR_TBL SI on SM.STAR_IDX = SI.STAR_IDX inner join FILE_TBL FT on SM.FILE_IDX = FT.FILE_IDX set SM.STAR_MEM_HGHT = '키', SM.STAR_MEM_BLD = '혈액형', SM.STAR_MEM_WGHT = '몸무게', SM.STAR_MEM_BIRTH = '출생', SI.STAR_DBT_DATE = '데뷔날짜', FT.FILE_PATH = '파일경로', SM.GRP_IDX = (select * from (select G.GRP_IDX from GRP_TBL G inner join STAR_TBL S on G.STAR_IDX = S.STAR_IDX where S.STAR_NM = '그룹이름' and S.STAR_TYP = 'GRP')T) where SM.STAR_MEM_IDX = '인덱스' and SI.STAR_TYP = 'STAR';</t>
-  </si>
-  <si>
-    <t>update GRP_TBL GT inner join STAR_TBL ST on GT.STAR_IDX = ST.STAR_IDX inner join FILE_TBL FT on ST.FILE_IDX = FT.FILE_IDX set CLB_SITE = '사이트', ST.STAR_DBT_DATE = '데뷔날짜', FT.FILE_PATH = '파일 경로' where GT.GRP_IDX = '그룹인덱스';</t>
-  </si>
-  <si>
-    <t>delete ST, SMT, FT from STAR_TBL ST inner join STAR_MEM_TBL SMT on ST.STAR_IDX = SMT.STAR_IDX inner join FILE_TBL FT on ST.FILE_IDX = FT.FILE_IDX where ST.STAR_IDX = '인덱스';</t>
   </si>
   <si>
     <t>delete ST, GT, FT from STAR_TBL ST inner join GRP_TBL GT on ST.STAR_IDX = GT.SRP_IDX inner join FILE_TBL FT on ST.FILE_IDX = FT.FILE_IDX where ST.GRP_IDX = '그룹인덱스';</t>
   </si>
   <si>
     <t>insert into LIKE_STAR_TBL(STAR_IDX, MEM_ID) values ('연예인인덱스', '회원아이디');</t>
-  </si>
-  <si>
-    <t>insert into STAR_TAG_TBL(STAR_IDX, TAG_NM) values ('연예인인덱스', '태그이름');</t>
   </si>
   <si>
     <t>select C.CMPY_NM, C.CMPY_REP, F.FILE_PATH from CMPY_TBL C inner join FILE_TBL F on C.FILE_IDX = F.FILE_IDX LIMIT 10 OFFSET N;</t>
@@ -10847,9 +10829,6 @@
     <t>insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('이름', '경로',SYSDATE()); insert into MEM_TBL ( MEM_ID, MEM_PWD, MEM_NICK, MEM_NM, FILE_IDX) values ('아이디', hex(aes_encrypt('암호 문자열', '암호화 키')), '닉네임', '이름', LAST_INSERT_ID());</t>
   </si>
   <si>
-    <t>insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('파일이름', '파일경로', SYSDATE()); insert into STAR_TBL(STAR_NM, STAR_TYP, STAR_DBT_DATE, CMPY_NM, FILE_IDX) values ('이름', 'GRP', SYSDATE(), '소속사', LAST_INSERT_ID()); insert into GRP_TBL(STAR_IDX, CLB_SITE) values (LAST_INSERT_ID(), '사이트');</t>
-  </si>
-  <si>
     <t>crt_mem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11071,6 +11050,38 @@
   </si>
   <si>
     <t>**/*/do : 뷰가 아닌 동작 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('파일이름', '파일경로', SYSDATE()); insert into STAR_TBL(STAR_NM, STAR_TYP, STAR_DBT_DATE, CMPY_NM, FILE_IDX) values ('이름', 'GRP', SYSDATE(), '소속사', LAST_INSERT_ID()); insert into GRP_TBL(STAR_IDX, CLB_SITE) values (LAST_INSERT_ID(), '사이트');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select S.STAR_MEM_IDX, S.STAR_MEM_HGHT, S.STAR_MEM_AGE, S.STAR_MEM_BLD, S.STAR_MEM_WGHT, S.STAR_MEM_BIRTH, GS.STAR_NM, GS.STAR_TYP from STAR_MEM_TBL S right outer join GRP_TBL G on S.GRP_IDX = G.GRP_IDX right outer join STAR_TBL GS on G.STAR_IDX = GS.STAR_IDX where S.STAR_IDX = '인덱스' and GS.STAR_TYP='TYP';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**/*.admin: 관리자 확인이 필요한 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update STAR_MEM_TBL SM inner join STAR_TBL SI on SM.STAR_IDX = SI.STAR_IDX inner join FILE_TBL FT on SM.FILE_IDX = FT.FILE_IDX set SM.STAR_MEM_HGHT = '키', SM.STAR_MEM_BLD = '혈액형', SM.STAR_MEM_WGHT = '몸무게', SM.STAR_MEM_BIRTH = '출생', SI.STAR_DBT_DATE = '데뷔날짜', FT.FILE_NM = '파일이름', FT.FILE_PATH = '파일경로', SM.GRP_IDX = (select * from (select G.GRP_IDX from GRP_TBL G inner join STAR_TBL S on G.STAR_IDX = S.STAR_IDX where S.STAR_NM = '그룹이름' and S.STAR_TYP = 'GRP')T) where SM.STAR_MEM_IDX = '인덱스' and SI.STAR_TYP = 'STAR';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update GRP_TBL GT inner join STAR_TBL ST on GT.STAR_IDX = ST.STAR_IDX inner join FILE_TBL FT on ST.FILE_IDX = FT.FILE_IDX set CLB_SITE = '사이트', ST.STAR_DBT_DATE = '데뷔날짜', FT.FILE_NM = '파일이름', FT.FILE_PATH = '파일 경로' where GT.GRP_IDX = '그룹인덱스';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update MEM_TBL M LEFT OUTER JOIN FILE_TBL F ON M.FILE_IDX = F.FILE_IDX SET M.MEM_PWD = hex(aes_encrypt('암호 문자열', '암호화 키')), M.MEM_NICK = '닉네임', M.MEM_NM = '이름', F.FILE_NM = '파일 이름', F.FILE_PATH = '파일경로' where M.MEM_ID = '아이디';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete ST, SMT, FT from STAR_TBL ST inner join STAR_MEM_TBL SMT on ST.STAR_IDX = SMT.STAR_IDX inner join FILE_TBL FT on ST.FILE_IDX = FT.FILE_IDX where SMT.STAR_MEM_IDX = '인덱스';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into STAR_TAG_TBL(STAR_IDX, TAG_NM) values ('연예인인덱스', '태그이름');</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11361,6 +11372,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11382,7 +11394,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11448,7 +11459,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11498,7 +11509,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11548,7 +11559,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11598,7 +11609,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11648,7 +11659,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11698,7 +11709,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11748,7 +11759,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11798,7 +11809,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11848,7 +11859,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11898,7 +11909,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11948,7 +11959,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11998,7 +12009,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12048,7 +12059,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12098,7 +12109,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12148,7 +12159,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12198,7 +12209,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12248,7 +12259,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12298,7 +12309,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12348,7 +12359,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12398,7 +12409,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12448,7 +12459,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12498,7 +12509,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12548,7 +12559,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12598,7 +12609,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12648,7 +12659,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12946,10 +12957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1012"/>
+  <dimension ref="A1:AA1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -12964,107 +12975,74 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:27">
       <c r="B2" s="19" t="s">
-        <v>302</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="44" customFormat="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-    </row>
-    <row r="5" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="32"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="B4" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="37" customFormat="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="B6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -13078,24 +13056,32 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="18" customHeight="1">
+    <row r="7" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -13111,30 +13097,18 @@
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>246</v>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -13152,30 +13126,32 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="18" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="40"/>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="26" t="s">
-        <v>25</v>
+      <c r="H9" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -13195,28 +13171,28 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
@@ -13236,28 +13212,28 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="27" t="s">
-        <v>25</v>
+      <c r="H11" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
@@ -13277,28 +13253,28 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>26</v>
+      <c r="H12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -13318,28 +13294,28 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>26</v>
+      <c r="H13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>299</v>
+        <v>93</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -13359,28 +13335,28 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -13400,25 +13376,29 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="19"/>
+      <c r="H15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
@@ -13435,33 +13415,27 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="17.399999999999999" customHeight="1">
+    <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>295</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
@@ -13478,30 +13452,32 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="42"/>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -13521,28 +13497,28 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -13562,28 +13538,28 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -13603,28 +13579,28 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -13644,28 +13620,28 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -13685,28 +13661,28 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
@@ -13724,30 +13700,30 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27" ht="18" customHeight="1">
+    <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
@@ -13765,30 +13741,30 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="18" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
@@ -13808,28 +13784,28 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
@@ -13849,28 +13825,28 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="3"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
@@ -13880,42 +13856,38 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="V26" s="38"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27" ht="18" customHeight="1">
+    <row r="27" spans="1:27">
       <c r="A27" s="3"/>
-      <c r="B27" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
@@ -13925,38 +13897,42 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="U27" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="V27" s="39"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="18" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="40"/>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>13</v>
+        <v>262</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -13974,30 +13950,30 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:27" ht="18" customHeight="1">
+    <row r="29" spans="1:27">
       <c r="A29" s="3"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>14</v>
+        <v>263</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
@@ -14015,30 +13991,30 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="18" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -14058,37 +14034,35 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="3"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -14099,39 +14073,39 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27" ht="18" customHeight="1">
+    <row r="32" spans="1:27">
       <c r="A32" s="3"/>
-      <c r="B32" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>297</v>
+        <v>266</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -14142,30 +14116,32 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="18" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="B33" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="42"/>
       <c r="D33" s="2" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>241</v>
+        <v>267</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>290</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -14185,28 +14161,28 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="3"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
@@ -14226,25 +14202,29 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="3"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="34"/>
-      <c r="L35" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
@@ -14263,29 +14243,25 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="3"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>243</v>
-      </c>
+      <c r="H36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
@@ -14302,30 +14278,30 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
-    <row r="37" spans="1:27" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="1:27">
       <c r="A37" s="3"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
@@ -14343,30 +14319,30 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
-      <c r="H38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>26</v>
+      <c r="H38" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
@@ -14384,27 +14360,31 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" ht="409.6">
       <c r="A39" s="3"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="34"/>
-      <c r="L39" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
@@ -14421,33 +14401,27 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
     </row>
-    <row r="40" spans="1:27" ht="18" customHeight="1">
+    <row r="40" spans="1:27">
       <c r="A40" s="3"/>
-      <c r="B40" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>222</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
@@ -14466,28 +14440,30 @@
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="40"/>
       <c r="D41" s="1" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
@@ -14505,30 +14481,30 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" ht="18" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
@@ -14548,28 +14524,28 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="3"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -14589,25 +14565,25 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="3"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="L44" s="19" t="s">
         <v>223</v>
@@ -14630,28 +14606,28 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="3"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -14671,28 +14647,28 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="3"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="1" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -14712,28 +14688,28 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="3"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="1" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
@@ -14753,28 +14729,28 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="3"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
@@ -14792,32 +14768,30 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
     </row>
-    <row r="49" spans="1:27" ht="18" customHeight="1">
+    <row r="49" spans="1:27">
       <c r="A49" s="3"/>
-      <c r="B49" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
@@ -14835,30 +14809,32 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" ht="18" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
+      <c r="B50" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="42"/>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
       <c r="H50" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -14878,28 +14854,28 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="3"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -14919,28 +14895,28 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="3"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K52" s="34" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
@@ -14958,32 +14934,30 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
     </row>
-    <row r="53" spans="1:27" ht="18" customHeight="1">
+    <row r="53" spans="1:27">
       <c r="A53" s="3"/>
-      <c r="B53" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
@@ -15001,30 +14975,32 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" ht="18" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
+      <c r="B54" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="40"/>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
       <c r="H54" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -15044,25 +15020,29 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="3"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
       <c r="H55" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" s="34"/>
-      <c r="L55" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="M55" s="19"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19"/>
@@ -15081,29 +15061,25 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="3"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
       <c r="H56" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>235</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K56" s="34"/>
+      <c r="L56" s="19"/>
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
@@ -15122,28 +15098,28 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="3"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
       <c r="H57" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
@@ -15163,20 +15139,32 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="L58" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -15248,15 +15236,13 @@
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
     </row>
-    <row r="61" spans="1:27" ht="18" customHeight="1">
+    <row r="61" spans="1:27">
       <c r="A61" s="3"/>
-      <c r="B61" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -15279,13 +15265,15 @@
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" ht="18" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
+      <c r="B62" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -15308,17 +15296,13 @@
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
     </row>
-    <row r="63" spans="1:27" ht="34">
+    <row r="63" spans="1:27">
       <c r="A63" s="3"/>
-      <c r="B63" s="7">
-        <v>1</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -15344,10 +15328,10 @@
     <row r="64" spans="1:27" ht="34">
       <c r="A64" s="3"/>
       <c r="B64" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -15376,15 +15360,15 @@
     </row>
     <row r="65" spans="1:27" ht="34">
       <c r="A65" s="3"/>
-      <c r="B65" s="8">
-        <v>3</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="B65" s="7">
+        <v>2</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -15407,10 +15391,14 @@
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" ht="34">
       <c r="A66" s="3"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="B66" s="8">
+        <v>3</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -15438,11 +15426,11 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -16626,33 +16614,33 @@
       <c r="AA107" s="3"/>
     </row>
     <row r="108" spans="1:27">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
       <c r="K108" s="31"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="10"/>
-      <c r="S108" s="10"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="10"/>
-      <c r="V108" s="10"/>
-      <c r="W108" s="10"/>
-      <c r="X108" s="10"/>
-      <c r="Y108" s="10"/>
-      <c r="Z108" s="10"/>
-      <c r="AA108" s="10"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="10"/>
@@ -42870,18 +42858,47 @@
       <c r="Z1012" s="10"/>
       <c r="AA1012" s="10"/>
     </row>
+    <row r="1013" spans="1:27">
+      <c r="A1013" s="10"/>
+      <c r="B1013" s="10"/>
+      <c r="C1013" s="10"/>
+      <c r="D1013" s="10"/>
+      <c r="E1013" s="10"/>
+      <c r="F1013" s="10"/>
+      <c r="G1013" s="10"/>
+      <c r="H1013" s="10"/>
+      <c r="I1013" s="10"/>
+      <c r="J1013" s="10"/>
+      <c r="K1013" s="31"/>
+      <c r="L1013" s="10"/>
+      <c r="M1013" s="10"/>
+      <c r="N1013" s="10"/>
+      <c r="O1013" s="10"/>
+      <c r="P1013" s="10"/>
+      <c r="Q1013" s="10"/>
+      <c r="R1013" s="10"/>
+      <c r="S1013" s="10"/>
+      <c r="T1013" s="10"/>
+      <c r="U1013" s="10"/>
+      <c r="V1013" s="10"/>
+      <c r="W1013" s="10"/>
+      <c r="X1013" s="10"/>
+      <c r="Y1013" s="10"/>
+      <c r="Z1013" s="10"/>
+      <c r="AA1013" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B61:F62"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="B8:C15"/>
-    <mergeCell ref="B5:J7"/>
-    <mergeCell ref="B16:C26"/>
-    <mergeCell ref="B27:C31"/>
-    <mergeCell ref="B32:C39"/>
-    <mergeCell ref="B40:C48"/>
-    <mergeCell ref="B49:C52"/>
-    <mergeCell ref="B53:C57"/>
+    <mergeCell ref="B62:F63"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B9:C16"/>
+    <mergeCell ref="B6:J8"/>
+    <mergeCell ref="B17:C27"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="B33:C40"/>
+    <mergeCell ref="B41:C49"/>
+    <mergeCell ref="B50:C53"/>
+    <mergeCell ref="B54:C58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42906,676 +42923,642 @@
   <sheetData>
     <row r="5" spans="4:6" ht="17.5" thickBot="1">
       <c r="D5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="26" thickTop="1">
+      <c r="D6" s="43">
+        <v>1</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="26">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="25.5">
+      <c r="D9" s="43">
+        <v>2</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="14" t="s">
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="43">
+        <v>3</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="25">
+      <c r="D15" s="43">
+        <v>4</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="26">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="38">
+      <c r="D18" s="43">
+        <v>5</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="43">
+        <v>6</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="38">
+      <c r="D24" s="43">
+        <v>7</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="26">
+      <c r="D27" s="43">
+        <v>8</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="26">
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="25">
+      <c r="D30" s="43">
+        <v>9</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="43">
+        <v>10</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="25">
+      <c r="D36" s="43">
+        <v>11</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="37.5">
+      <c r="D39" s="43">
+        <v>12</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="25">
+      <c r="D42" s="43">
+        <v>13</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="75.5">
+      <c r="D45" s="43">
+        <v>14</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="26">
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="37.5">
+      <c r="D48" s="43">
+        <v>15</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="26">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="25">
+      <c r="D51" s="43">
+        <v>16</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="25">
+      <c r="D54" s="43">
+        <v>17</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6">
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="D57" s="43">
+        <v>18</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="34">
+      <c r="D60" s="43">
+        <v>19</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" ht="34">
+      <c r="D63" s="43">
+        <v>20</v>
+      </c>
+      <c r="E63" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" ht="26" thickTop="1">
-      <c r="D6" s="42">
-        <v>1</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="12" t="s">
+      <c r="F63" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" ht="34">
+      <c r="D66" s="43">
+        <v>21</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="26">
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="34">
+      <c r="D69" s="43">
+        <v>22</v>
+      </c>
+      <c r="E69" s="43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" ht="26">
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" ht="25.5">
-      <c r="D9" s="42">
-        <v>2</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="42">
-        <v>3</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" ht="25">
-      <c r="D15" s="42">
-        <v>4</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" ht="26">
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="38">
-      <c r="D18" s="42">
-        <v>5</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="42">
-        <v>6</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" ht="38">
-      <c r="D24" s="42">
-        <v>7</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" ht="26">
-      <c r="D27" s="42">
-        <v>8</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="26">
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" ht="25">
-      <c r="D30" s="42">
-        <v>9</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="42">
-        <v>10</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="25">
-      <c r="D36" s="42">
-        <v>11</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="37.5">
-      <c r="D39" s="42">
-        <v>12</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="25">
-      <c r="D42" s="42">
-        <v>13</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="12" t="s">
+      <c r="F69" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" ht="26">
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72" s="43">
+        <v>23</v>
+      </c>
+      <c r="E72" s="43" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="4:6">
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" ht="75.5">
-      <c r="D45" s="42">
-        <v>14</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" ht="26">
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6">
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" ht="37.5">
-      <c r="D48" s="42">
-        <v>15</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="26">
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="25">
-      <c r="D51" s="42">
-        <v>16</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6">
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" ht="25">
-      <c r="D54" s="42">
-        <v>17</v>
-      </c>
-      <c r="E54" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6">
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6">
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6">
-      <c r="D57" s="42">
-        <v>18</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6">
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6">
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" ht="34">
-      <c r="D60" s="42">
-        <v>19</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6">
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="12" t="s">
+      <c r="F72" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" ht="26">
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="4:6">
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="12" t="s">
+    <row r="74" spans="4:6">
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="4:6" ht="34">
-      <c r="D63" s="42">
-        <v>20</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="16" t="s">
+    <row r="75" spans="4:6">
+      <c r="D75" s="43">
+        <v>24</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="4:6">
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6">
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" ht="34">
-      <c r="D66" s="42">
-        <v>21</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F66" s="16" t="s">
+    <row r="77" spans="4:6">
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="34">
+      <c r="D78" s="43">
+        <v>25</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="4:6" ht="26">
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6">
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" ht="34">
-      <c r="D69" s="42">
-        <v>22</v>
-      </c>
-      <c r="E69" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" s="16" t="s">
+    <row r="80" spans="4:6">
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="12" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" ht="26">
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6">
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6">
-      <c r="D72" s="42">
-        <v>23</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" ht="26">
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6">
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6">
-      <c r="D75" s="42">
-        <v>24</v>
-      </c>
-      <c r="E75" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6">
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6">
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" ht="34">
-      <c r="D78" s="42">
-        <v>25</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6">
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6">
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="12" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -43592,6 +43575,40 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43614,12 +43631,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -43672,12 +43689,12 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -43685,7 +43702,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -43693,7 +43710,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -43701,12 +43718,12 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -43714,12 +43731,12 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -43727,7 +43744,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -43735,17 +43752,17 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -43753,12 +43770,12 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -43766,22 +43783,22 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="B105" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="B106" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -43789,7 +43806,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -43797,7 +43814,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -43805,7 +43822,7 @@
         <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -43813,12 +43830,12 @@
         <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="B157" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -43826,12 +43843,12 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -43839,12 +43856,12 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="B182" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -43852,12 +43869,12 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="B193" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -43865,12 +43882,12 @@
         <v>18</v>
       </c>
       <c r="B203" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="B204" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -43878,17 +43895,17 @@
         <v>19</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="B215" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="B216" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -43896,7 +43913,7 @@
         <v>20</v>
       </c>
       <c r="B230" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -43904,7 +43921,7 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -43912,12 +43929,12 @@
         <v>22</v>
       </c>
       <c r="B254" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="B255" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -43925,12 +43942,12 @@
         <v>23</v>
       </c>
       <c r="B266" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="B267" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -43938,17 +43955,17 @@
         <v>24</v>
       </c>
       <c r="B280" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="B281" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="B282" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -43956,12 +43973,12 @@
         <v>25</v>
       </c>
       <c r="B293" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="B294" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -11451,6 +11451,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11471,11 +11476,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11542,7 +11542,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11592,7 +11592,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11642,7 +11642,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11692,7 +11692,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11742,7 +11742,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11792,7 +11792,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11842,7 +11842,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11892,7 +11892,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11942,7 +11942,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11992,7 +11992,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12042,7 +12042,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12092,7 +12092,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12142,7 +12142,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12192,7 +12192,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12242,7 +12242,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12292,7 +12292,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12342,7 +12342,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12392,7 +12392,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12442,7 +12442,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12492,7 +12492,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12542,7 +12542,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12592,7 +12592,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12642,7 +12642,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12692,7 +12692,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12742,7 +12742,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13032,7 +13032,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13042,8 +13042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13052,7 +13052,7 @@
     <col min="2" max="3" width="8.83203125" style="30"/>
     <col min="4" max="7" width="8.83203125" style="11"/>
     <col min="8" max="10" width="8.83203125" style="4"/>
-    <col min="11" max="13" width="8.83203125" style="45"/>
+    <col min="11" max="13" width="8.83203125" style="38"/>
     <col min="14" max="14" width="15.9140625" style="35" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.83203125" style="4"/>
   </cols>
@@ -13091,9 +13091,9 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="34"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -13114,20 +13114,20 @@
     </row>
     <row r="6" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="32"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -13148,22 +13148,22 @@
     </row>
     <row r="7" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="47" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="40" t="s">
         <v>307</v>
       </c>
       <c r="N7" s="33" t="s">
@@ -13196,18 +13196,18 @@
     </row>
     <row r="8" spans="1:30" ht="18" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="32"/>
       <c r="O8" s="19" t="s">
         <v>16</v>
@@ -13230,10 +13230,10 @@
     </row>
     <row r="9" spans="1:30" ht="18" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
@@ -13278,8 +13278,8 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
@@ -13324,8 +13324,8 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
@@ -13370,8 +13370,8 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
@@ -13416,8 +13416,8 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
@@ -13462,8 +13462,8 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
@@ -13508,8 +13508,8 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
@@ -13554,8 +13554,8 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
@@ -13596,10 +13596,10 @@
     </row>
     <row r="17" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
@@ -13644,8 +13644,8 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
@@ -13690,8 +13690,8 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="3"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
@@ -13736,8 +13736,8 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="3"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
@@ -13782,8 +13782,8 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
@@ -13828,8 +13828,8 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
@@ -13874,8 +13874,8 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="3"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
@@ -13920,8 +13920,8 @@
     </row>
     <row r="24" spans="1:30" ht="18" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
@@ -13966,8 +13966,8 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="3"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
@@ -14012,8 +14012,8 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="3"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
@@ -14058,8 +14058,8 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="2" t="s">
         <v>40</v>
       </c>
@@ -14094,10 +14094,10 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="39" t="s">
+      <c r="X27" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="Y27" s="39"/>
+      <c r="Y27" s="42"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
@@ -14106,10 +14106,10 @@
     </row>
     <row r="28" spans="1:30" ht="18" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="1" t="s">
         <v>42</v>
       </c>
@@ -14152,8 +14152,8 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="1" t="s">
         <v>43</v>
       </c>
@@ -14196,8 +14196,8 @@
     </row>
     <row r="30" spans="1:30" ht="18" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="1" t="s">
         <v>44</v>
       </c>
@@ -14240,8 +14240,8 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="3"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="1" t="s">
         <v>45</v>
       </c>
@@ -14284,8 +14284,8 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="3"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="1" t="s">
         <v>46</v>
       </c>
@@ -14330,10 +14330,10 @@
     </row>
     <row r="33" spans="1:30" ht="18" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="42"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="2" t="s">
         <v>49</v>
       </c>
@@ -14376,8 +14376,8 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="3"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="2" t="s">
         <v>231</v>
       </c>
@@ -14420,8 +14420,8 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="3"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="2" t="s">
         <v>234</v>
       </c>
@@ -14464,8 +14464,8 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="3"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="2" t="s">
         <v>50</v>
       </c>
@@ -14504,8 +14504,8 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="3"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="2" t="s">
         <v>51</v>
       </c>
@@ -14548,8 +14548,8 @@
     </row>
     <row r="38" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="2" t="s">
         <v>52</v>
       </c>
@@ -14592,8 +14592,8 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="3"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="2" t="s">
         <v>53</v>
       </c>
@@ -14636,8 +14636,8 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="3"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="2" t="s">
         <v>54</v>
       </c>
@@ -14676,10 +14676,10 @@
     </row>
     <row r="41" spans="1:30" ht="18" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="40"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="1" t="s">
         <v>56</v>
       </c>
@@ -14722,8 +14722,8 @@
     </row>
     <row r="42" spans="1:30" ht="18" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="1" t="s">
         <v>213</v>
       </c>
@@ -14766,8 +14766,8 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="3"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="1" t="s">
         <v>232</v>
       </c>
@@ -14810,8 +14810,8 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="3"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="1" t="s">
         <v>215</v>
       </c>
@@ -14854,8 +14854,8 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="3"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="1" t="s">
         <v>57</v>
       </c>
@@ -14898,8 +14898,8 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="3"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="1" t="s">
         <v>58</v>
       </c>
@@ -14942,8 +14942,8 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="3"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="1" t="s">
         <v>218</v>
       </c>
@@ -14986,8 +14986,8 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="3"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="1" t="s">
         <v>59</v>
       </c>
@@ -15030,8 +15030,8 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="3"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="1" t="s">
         <v>60</v>
       </c>
@@ -15074,10 +15074,10 @@
     </row>
     <row r="50" spans="1:30" ht="18" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="42"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="2" t="s">
         <v>62</v>
       </c>
@@ -15120,8 +15120,8 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="3"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="2" t="s">
         <v>63</v>
       </c>
@@ -15164,8 +15164,8 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="3"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="2" t="s">
         <v>64</v>
       </c>
@@ -15208,8 +15208,8 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="3"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="2" t="s">
         <v>65</v>
       </c>
@@ -15252,10 +15252,10 @@
     </row>
     <row r="54" spans="1:30" ht="18" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="40"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="1" t="s">
         <v>67</v>
       </c>
@@ -15298,8 +15298,8 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="3"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="1" t="s">
         <v>68</v>
       </c>
@@ -15342,8 +15342,8 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="3"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="1" t="s">
         <v>69</v>
       </c>
@@ -15382,8 +15382,8 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="3"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="1" t="s">
         <v>70</v>
       </c>
@@ -15426,8 +15426,8 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="3"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="1" t="s">
         <v>71</v>
       </c>
@@ -15566,13 +15566,13 @@
     </row>
     <row r="62" spans="1:30" ht="18" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -15600,11 +15600,11 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="3"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -46088,10 +46088,10 @@
       </c>
     </row>
     <row r="6" spans="4:6" ht="26" thickTop="1">
-      <c r="D6" s="43">
+      <c r="D6" s="46">
         <v>1</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="46" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -46099,24 +46099,24 @@
       </c>
     </row>
     <row r="7" spans="4:6">
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="26">
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="25.5">
-      <c r="D9" s="43">
+      <c r="D9" s="46">
         <v>2</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="46" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -46124,24 +46124,24 @@
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="43">
+      <c r="D12" s="46">
         <v>3</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="46" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -46149,24 +46149,24 @@
       </c>
     </row>
     <row r="13" spans="4:6">
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="25">
-      <c r="D15" s="43">
+      <c r="D15" s="46">
         <v>4</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="46" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -46174,24 +46174,24 @@
       </c>
     </row>
     <row r="16" spans="4:6" ht="26">
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="38">
-      <c r="D18" s="43">
+      <c r="D18" s="46">
         <v>5</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="46" t="s">
         <v>132</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -46199,24 +46199,24 @@
       </c>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="43">
+      <c r="D21" s="46">
         <v>6</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="46" t="s">
         <v>92</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -46224,24 +46224,24 @@
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="38">
-      <c r="D24" s="43">
+      <c r="D24" s="46">
         <v>7</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="46" t="s">
         <v>131</v>
       </c>
       <c r="F24" s="13" t="s">
@@ -46249,24 +46249,24 @@
       </c>
     </row>
     <row r="25" spans="4:6">
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="26">
-      <c r="D27" s="43">
+      <c r="D27" s="46">
         <v>8</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="46" t="s">
         <v>133</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -46274,24 +46274,24 @@
       </c>
     </row>
     <row r="28" spans="4:6" ht="26">
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="4:6">
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="25">
-      <c r="D30" s="43">
+      <c r="D30" s="46">
         <v>9</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="46" t="s">
         <v>81</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -46299,24 +46299,24 @@
       </c>
     </row>
     <row r="31" spans="4:6">
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="4:6">
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="43">
+      <c r="D33" s="46">
         <v>10</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="46" t="s">
         <v>81</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -46324,24 +46324,24 @@
       </c>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="25">
-      <c r="D36" s="43">
+      <c r="D36" s="46">
         <v>11</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="46" t="s">
         <v>134</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -46349,24 +46349,24 @@
       </c>
     </row>
     <row r="37" spans="4:6">
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" spans="4:6">
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="37.5">
-      <c r="D39" s="43">
+      <c r="D39" s="46">
         <v>12</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -46374,24 +46374,24 @@
       </c>
     </row>
     <row r="40" spans="4:6">
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="4:6">
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="25">
-      <c r="D42" s="43">
+      <c r="D42" s="46">
         <v>13</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="46" t="s">
         <v>131</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -46399,24 +46399,24 @@
       </c>
     </row>
     <row r="43" spans="4:6">
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="75.5">
-      <c r="D45" s="43">
+      <c r="D45" s="46">
         <v>14</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="46" t="s">
         <v>136</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -46424,24 +46424,24 @@
       </c>
     </row>
     <row r="46" spans="4:6" ht="26">
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="47" spans="4:6">
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="37.5">
-      <c r="D48" s="43">
+      <c r="D48" s="46">
         <v>15</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="46" t="s">
         <v>137</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -46449,24 +46449,24 @@
       </c>
     </row>
     <row r="49" spans="4:6" ht="26">
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="4:6">
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="25">
-      <c r="D51" s="43">
+      <c r="D51" s="46">
         <v>16</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="46" t="s">
         <v>138</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -46474,24 +46474,24 @@
       </c>
     </row>
     <row r="52" spans="4:6">
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="53" spans="4:6">
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="25">
-      <c r="D54" s="43">
+      <c r="D54" s="46">
         <v>17</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="46" t="s">
         <v>138</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -46499,24 +46499,24 @@
       </c>
     </row>
     <row r="55" spans="4:6">
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="4:6">
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
       <c r="F56" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="4:6">
-      <c r="D57" s="43">
+      <c r="D57" s="46">
         <v>18</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="46" t="s">
         <v>81</v>
       </c>
       <c r="F57" s="13" t="s">
@@ -46524,24 +46524,24 @@
       </c>
     </row>
     <row r="58" spans="4:6">
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
       <c r="F58" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="59" spans="4:6">
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="34">
-      <c r="D60" s="43">
+      <c r="D60" s="46">
         <v>19</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="46" t="s">
         <v>81</v>
       </c>
       <c r="F60" s="16" t="s">
@@ -46549,24 +46549,24 @@
       </c>
     </row>
     <row r="61" spans="4:6">
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" spans="4:6">
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
       <c r="F62" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="34">
-      <c r="D63" s="43">
+      <c r="D63" s="46">
         <v>20</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="46" t="s">
         <v>83</v>
       </c>
       <c r="F63" s="16" t="s">
@@ -46574,24 +46574,24 @@
       </c>
     </row>
     <row r="64" spans="4:6">
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
       <c r="F64" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="65" spans="4:6">
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="34">
-      <c r="D66" s="43">
+      <c r="D66" s="46">
         <v>21</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="46" t="s">
         <v>83</v>
       </c>
       <c r="F66" s="16" t="s">
@@ -46599,24 +46599,24 @@
       </c>
     </row>
     <row r="67" spans="4:6" ht="26">
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="68" spans="4:6">
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="34">
-      <c r="D69" s="43">
+      <c r="D69" s="46">
         <v>22</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="46" t="s">
         <v>92</v>
       </c>
       <c r="F69" s="16" t="s">
@@ -46624,24 +46624,24 @@
       </c>
     </row>
     <row r="70" spans="4:6" ht="26">
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="43">
+      <c r="D72" s="46">
         <v>23</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -46649,24 +46649,24 @@
       </c>
     </row>
     <row r="73" spans="4:6" ht="26">
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="43">
+      <c r="D75" s="46">
         <v>24</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="46" t="s">
         <v>81</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -46674,24 +46674,24 @@
       </c>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
       <c r="F76" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="34">
-      <c r="D78" s="43">
+      <c r="D78" s="46">
         <v>25</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="46" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="16" t="s">
@@ -46699,55 +46699,21 @@
       </c>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
       <c r="F80" s="12" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -46764,6 +46730,40 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="333">
   <si>
     <t>select MEM_ID, MEM_NICK, MEM_NM from MEM_TBL limit 10 offset N;</t>
   </si>
@@ -11156,12 +11156,31 @@
   <si>
     <t>/tag/star/do.go</t>
   </si>
+  <si>
+    <t>쿼리 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crt/cmpy/do.admin</t>
+  </si>
+  <si>
+    <t>/srch/list/cmpy/do</t>
+  </si>
+  <si>
+    <t>/srch/cmpy/do</t>
+  </si>
+  <si>
+    <t>/fix/cmpy/do.admin</t>
+  </si>
+  <si>
+    <t>/del/cmpy/do.admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11272,6 +11291,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -11372,7 +11399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11477,6 +11504,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11542,7 +11572,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11592,7 +11622,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11642,7 +11672,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11692,7 +11722,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11742,7 +11772,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11792,7 +11822,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11842,7 +11872,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11892,7 +11922,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11942,7 +11972,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11992,7 +12022,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12042,7 +12072,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12092,7 +12122,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12142,7 +12172,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12192,7 +12222,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12242,7 +12272,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12292,7 +12322,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12342,7 +12372,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12392,7 +12422,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12442,7 +12472,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12492,7 +12522,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12542,7 +12572,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12592,7 +12622,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12642,7 +12672,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12692,7 +12722,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12742,7 +12772,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13032,7 +13062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13042,13 +13072,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.83203125" style="30"/>
     <col min="4" max="7" width="8.83203125" style="11"/>
     <col min="8" max="10" width="8.83203125" style="4"/>
@@ -13919,7 +13949,9 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:30" ht="18" customHeight="1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="19" t="s">
+        <v>327</v>
+      </c>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
       <c r="D24" s="2" t="s">
@@ -13945,7 +13977,7 @@
       <c r="N24" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="48" t="s">
         <v>303</v>
       </c>
       <c r="P24" s="19"/>
@@ -13965,7 +13997,9 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="3"/>
+      <c r="A25" s="19" t="s">
+        <v>327</v>
+      </c>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
       <c r="D25" s="2" t="s">
@@ -13991,7 +14025,7 @@
       <c r="N25" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="48" t="s">
         <v>5</v>
       </c>
       <c r="P25" s="19"/>
@@ -14125,7 +14159,9 @@
       <c r="J28" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="34" t="s">
+        <v>328</v>
+      </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="34" t="s">
@@ -14169,7 +14205,9 @@
       <c r="J29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="34" t="s">
+        <v>329</v>
+      </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34" t="s">
@@ -14213,7 +14251,9 @@
       <c r="J30" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="34" t="s">
+        <v>330</v>
+      </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34" t="s">
@@ -14257,7 +14297,9 @@
       <c r="J31" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="34"/>
+      <c r="K31" s="34" t="s">
+        <v>331</v>
+      </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="34" t="s">
@@ -14301,7 +14343,9 @@
       <c r="J32" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="34" t="s">
+        <v>332</v>
+      </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34" t="s">
@@ -46714,6 +46758,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -46730,40 +46808,6 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="341">
   <si>
     <t>select MEM_ID, MEM_NICK, MEM_NM from MEM_TBL limit 10 offset N;</t>
   </si>
@@ -10817,13 +10817,7 @@
     <t>select MMT.MM_IDX, MMT.MM_HIT_CNT, FT.FILE_NM, FT.FILE_PATH, FT.FILE_CRT_DATE from MM_TBL MMT inner join FILE_TBL FT on MMT.FILE_IDX = FT.FILE_IDX where MMT.MM_IDX in (select MM_IDX from MM_TAG_TBL where TAG_NM = '태그이름') limit N, 10;</t>
   </si>
   <si>
-    <t>update from FILE_TBL set FILE_NM = '파일이름', FILE_PATH = '파일경로' where FILE_IDX in (select FILE_IDX from MM_TBL where MM_IDX = '밈인덱스');</t>
-  </si>
-  <si>
     <t>delete FT, MMT from MM_TBL MMT inner join FILE_TBL FT on MMT.FILE_IDX = FT.FILE_IDX where MMT.MM_IDX = '밈인덱스';</t>
-  </si>
-  <si>
-    <t>insert into MM_TAG_TBL (TAG_NM, MM_IDX) values ('태그이름', '밈인덱스');</t>
   </si>
   <si>
     <t>insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('이름', '경로',SYSDATE()); insert into MEM_TBL ( MEM_ID, MEM_PWD, MEM_NICK, MEM_NM, FILE_IDX) values ('아이디', hex(aes_encrypt('암호 문자열', '암호화 키')), '닉네임', '이름', LAST_INSERT_ID());</t>
@@ -11025,10 +11019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('짤', '파일경로', SYSDATE()); insert into MM_TBL(FILE_IDX, MEM_ID) values (LAST_INSERT_ID(), '업로드한회원ID'); insert into STAR_MM_TBL(STAR_IDX, MM_IDX) values ('연예인 인덱스1',LAST_INSERT_ID()), ('연예인 인덱스1',LAST_INSERT_ID()), ....;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>delete PFT, FT from POST_FILE_TBL PFT inner join FILE_TBL FT on PFT.FILE_IDX = FT.FILE_IDX where POST_IDX = '게시글인덱스'; insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('파일이름', '파일경로', SYSDATE()); insert INTO POST_FILE_TBL (POST_IDX, FILE_IDX) values ('게시글인덱스', LAST_INSERT_ID());</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11045,23 +11035,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**/*.go : 세션 확인이 필요한 url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**/*/do : 뷰가 아닌 동작 url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('파일이름', '파일경로', SYSDATE()); insert into STAR_TBL(STAR_NM, STAR_TYP, STAR_DBT_DATE, CMPY_NM, FILE_IDX) values ('이름', 'GRP', SYSDATE(), '소속사', LAST_INSERT_ID()); insert into GRP_TBL(STAR_IDX, CLB_SITE) values (LAST_INSERT_ID(), '사이트');</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select S.STAR_MEM_IDX, S.STAR_MEM_HGHT, S.STAR_MEM_AGE, S.STAR_MEM_BLD, S.STAR_MEM_WGHT, S.STAR_MEM_BIRTH, GS.STAR_NM, GS.STAR_TYP from STAR_MEM_TBL S right outer join GRP_TBL G on S.GRP_IDX = G.GRP_IDX right outer join STAR_TBL GS on G.STAR_IDX = GS.STAR_IDX where S.STAR_IDX = '인덱스' and GS.STAR_TYP='TYP';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**/*.admin: 관리자 확인이 필요한 url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11174,6 +11152,56 @@
   </si>
   <si>
     <t>/del/cmpy/do.admin</t>
+  </si>
+  <si>
+    <t>insert into FILE_TBL(FILE_NM, FILE_PATH, FILE_CRT_DATE) values ('짤', '파일경로', SYSDATE()); insert into MM_TBL(FILE_IDX, MEM_ID) values (LAST_INSERT_ID(), '업로드한회원ID'); insert into STAR_MM_TBL(STAR_IDX, MM_IDX) values ('연예인 인덱스1',LAST_INSERT_ID()), ('연예인 인덱스1',LAST_INSERT_ID()), ....;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update from FILE_TBL set FILE_NM = '파일이름', FILE_PATH = '파일경로' where FILE_IDX in (select FILE_IDX from MM_TBL where MM_IDX = '밈인덱스');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**/*.admin: 관리자 확인이 필요한 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**/*.go : 세션 확인이 필요한 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**/*/do : 뷰가 아닌 동작 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**/*.my : 자기 자신 또는 관리자만 확인가능한 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crt/mm/do.go</t>
+  </si>
+  <si>
+    <t>/srch/list/mm/star/do</t>
+  </si>
+  <si>
+    <t>/srch/list/mm/tag/do</t>
+  </si>
+  <si>
+    <t>/fix/mm/do.my</t>
+  </si>
+  <si>
+    <t>/del/mm/do.my</t>
+  </si>
+  <si>
+    <t>/add/tag/mm/do.my</t>
+  </si>
+  <si>
+    <t>쿼리 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into MM_TAG_TBL (TAG_NM, MM_IDX) values ('태그이름', '밈인덱스');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11399,7 +11427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11483,6 +11511,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11503,9 +11535,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13070,10 +13099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1013"/>
+  <dimension ref="A1:AD1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13089,128 +13118,85 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="B1" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="19" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:30">
       <c r="B3" s="19" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="B4" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="37" customFormat="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-    </row>
-    <row r="6" spans="1:30" ht="17.399999999999999" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="32"/>
+      <c r="B4" s="42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="B5" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="37" customFormat="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
     </row>
     <row r="7" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -13224,27 +13210,41 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="18" customHeight="1">
+    <row r="8" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -13260,35 +13260,21 @@
     </row>
     <row r="9" spans="1:30" ht="18" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>240</v>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -13306,35 +13292,37 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" ht="18" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="45"/>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
@@ -13354,10 +13342,10 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -13365,22 +13353,22 @@
       <c r="H11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="25" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -13400,15 +13388,15 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="27" t="s">
@@ -13418,15 +13406,15 @@
         <v>21</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -13446,33 +13434,33 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="27" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -13492,33 +13480,33 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -13538,10 +13526,10 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -13549,10 +13537,10 @@
       <c r="H15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="34" t="s">
@@ -13561,10 +13549,10 @@
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2</v>
+        <v>289</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -13584,30 +13572,34 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="19"/>
+      <c r="N16" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -13624,38 +13616,32 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
     </row>
-    <row r="17" spans="1:30" ht="17.399999999999999" customHeight="1">
+    <row r="17" spans="1:30">
       <c r="A17" s="3"/>
-      <c r="B17" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="B17" s="45"/>
       <c r="C17" s="45"/>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>288</v>
-      </c>
+      <c r="N17" s="34"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -13672,12 +13658,14 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="B18" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="47"/>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -13692,15 +13680,15 @@
         <v>21</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -13720,10 +13708,10 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="3"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -13731,22 +13719,22 @@
       <c r="H19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -13766,10 +13754,10 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="3"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -13780,19 +13768,19 @@
       <c r="I20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>298</v>
+        <v>3</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -13812,10 +13800,10 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -13830,15 +13818,15 @@
         <v>21</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -13858,10 +13846,10 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -13869,22 +13857,22 @@
       <c r="H22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -13904,10 +13892,10 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="3"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -13922,15 +13910,15 @@
         <v>21</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -13948,14 +13936,12 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:30" ht="18" customHeight="1">
-      <c r="A24" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+    <row r="24" spans="1:30">
+      <c r="A24" s="3"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -13970,15 +13956,15 @@
         <v>21</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="O24" s="48" t="s">
-        <v>303</v>
+        <v>285</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -13996,14 +13982,14 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" ht="18" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+        <v>321</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -14018,15 +14004,15 @@
         <v>21</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
       <c r="N25" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="O25" s="48" t="s">
-        <v>5</v>
+        <v>257</v>
+      </c>
+      <c r="O25" s="41" t="s">
+        <v>297</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -14045,11 +14031,13 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="3"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -14057,22 +14045,22 @@
       <c r="H26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="25" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>6</v>
+        <v>258</v>
+      </c>
+      <c r="O26" s="41" t="s">
+        <v>5</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -14092,10 +14080,10 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -14110,15 +14098,15 @@
         <v>21</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="34" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>304</v>
+        <v>6</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -14128,47 +14116,43 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y27" s="42"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:30" ht="18" customHeight="1">
+    <row r="28" spans="1:30">
       <c r="A28" s="3"/>
-      <c r="B28" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="34" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -14178,20 +14162,24 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="X28" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y28" s="44"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" ht="18" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="45"/>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -14206,15 +14194,15 @@
         <v>21</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>7</v>
+        <v>260</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -14232,12 +14220,12 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
     </row>
-    <row r="30" spans="1:30" ht="18" customHeight="1">
+    <row r="30" spans="1:30">
       <c r="A30" s="3"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -14245,22 +14233,22 @@
       <c r="H30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="25" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>8</v>
+        <v>261</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -14278,12 +14266,12 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" ht="18" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -14291,22 +14279,22 @@
       <c r="H31" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -14326,10 +14314,10 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="3"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -14344,24 +14332,22 @@
         <v>21</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -14372,42 +14358,46 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" ht="18" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="45" t="s">
-        <v>48</v>
-      </c>
+    <row r="33" spans="1:30">
+      <c r="A33" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="45"/>
       <c r="C33" s="45"/>
-      <c r="D33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="34"/>
+      <c r="K33" s="34" t="s">
+        <v>326</v>
+      </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="O33" s="36" t="s">
-        <v>290</v>
+        <v>264</v>
+      </c>
+      <c r="O33" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+      <c r="U33" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -14418,12 +14408,14 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" ht="18" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="47"/>
       <c r="D34" s="2" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -14434,17 +14426,19 @@
       <c r="I34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="34" t="s">
+        <v>333</v>
+      </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>235</v>
+        <v>265</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -14464,10 +14458,10 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="3"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -14481,14 +14475,16 @@
       <c r="J35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="34" t="s">
+        <v>334</v>
+      </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
       <c r="N35" s="34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -14508,10 +14504,10 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="3"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -14525,11 +14521,17 @@
       <c r="J36" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="34" t="s">
+        <v>335</v>
+      </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="19"/>
+      <c r="N36" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
@@ -14548,32 +14550,28 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="3"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="26" t="s">
         <v>21</v>
       </c>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
-      <c r="N37" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>237</v>
-      </c>
+      <c r="N37" s="34"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
@@ -14590,12 +14588,12 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
     </row>
-    <row r="38" spans="1:30" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="1:30">
       <c r="A38" s="3"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -14609,14 +14607,16 @@
       <c r="J38" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="34" t="s">
+        <v>336</v>
+      </c>
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
       <c r="N38" s="34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -14634,33 +14634,35 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="27" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K39" s="34"/>
+      <c r="K39" s="34" t="s">
+        <v>337</v>
+      </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
       <c r="N39" s="34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -14680,10 +14682,10 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="3"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -14694,14 +14696,20 @@
       <c r="I40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="34" t="s">
+        <v>338</v>
+      </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="19"/>
+      <c r="N40" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>340</v>
+      </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
@@ -14718,36 +14726,30 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
     </row>
-    <row r="41" spans="1:30" ht="18" customHeight="1">
+    <row r="41" spans="1:30">
       <c r="A41" s="3"/>
-      <c r="B41" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="26" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="J41" s="26" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
-      <c r="N41" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>216</v>
-      </c>
+      <c r="N41" s="34"/>
+      <c r="O41" s="19"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
@@ -14766,10 +14768,12 @@
     </row>
     <row r="42" spans="1:30" ht="18" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="45"/>
       <c r="D42" s="1" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -14787,10 +14791,10 @@
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O42" s="19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -14808,12 +14812,12 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" ht="18" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -14824,17 +14828,17 @@
       <c r="I43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
@@ -14854,10 +14858,10 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="3"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -14875,10 +14879,10 @@
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O44" s="19" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -14898,10 +14902,10 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="3"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="1" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -14919,10 +14923,10 @@
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -14942,10 +14946,10 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="3"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -14953,20 +14957,20 @@
       <c r="H46" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="27" t="s">
+      <c r="I46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="26" t="s">
         <v>21</v>
       </c>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
       <c r="N46" s="34" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="O46" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
@@ -14986,10 +14990,10 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="3"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="1" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -15007,10 +15011,10 @@
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
       <c r="N47" s="34" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O47" s="19" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -15030,10 +15034,10 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="3"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="1" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -15051,10 +15055,10 @@
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -15074,10 +15078,10 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="3"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -15085,7 +15089,7 @@
       <c r="H49" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I49" s="27" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="25" t="s">
@@ -15095,10 +15099,10 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -15116,18 +15120,16 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" ht="18" customHeight="1">
+    <row r="50" spans="1:30">
       <c r="A50" s="3"/>
-      <c r="B50" s="45" t="s">
-        <v>61</v>
-      </c>
+      <c r="B50" s="45"/>
       <c r="C50" s="45"/>
-      <c r="D50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
+      <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
       <c r="H50" s="26" t="s">
         <v>19</v>
       </c>
@@ -15141,10 +15143,10 @@
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
       <c r="N50" s="34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -15162,12 +15164,14 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" ht="18" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
+      <c r="B51" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="47"/>
       <c r="D51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -15178,17 +15182,17 @@
       <c r="I51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="26" t="s">
+      <c r="J51" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
       <c r="N51" s="34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O51" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -15208,10 +15212,10 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="3"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -15219,20 +15223,20 @@
       <c r="H52" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="I52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="J52" s="26" t="s">
         <v>21</v>
       </c>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
       <c r="N52" s="34" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -15252,10 +15256,10 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="3"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -15273,10 +15277,10 @@
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
       <c r="N53" s="34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -15294,22 +15298,20 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
     </row>
-    <row r="54" spans="1:30" ht="18" customHeight="1">
+    <row r="54" spans="1:30">
       <c r="A54" s="3"/>
-      <c r="B54" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="26" t="s">
+      <c r="I54" s="27" t="s">
         <v>20</v>
       </c>
       <c r="J54" s="25" t="s">
@@ -15319,10 +15321,10 @@
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
       <c r="N54" s="34" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -15340,12 +15342,14 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" ht="18" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="45"/>
       <c r="D55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -15363,10 +15367,10 @@
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -15386,10 +15390,10 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="3"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -15406,8 +15410,12 @@
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="19"/>
+      <c r="N56" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
@@ -15426,10 +15434,10 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="3"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -15437,7 +15445,7 @@
       <c r="H57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="27" t="s">
+      <c r="I57" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J57" s="25" t="s">
@@ -15446,12 +15454,8 @@
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
-      <c r="N57" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="O57" s="19" t="s">
-        <v>229</v>
-      </c>
+      <c r="N57" s="34"/>
+      <c r="O57" s="19"/>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
@@ -15470,10 +15474,10 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="3"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -15491,10 +15495,10 @@
       <c r="L58" s="34"/>
       <c r="M58" s="34"/>
       <c r="N58" s="34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -15514,23 +15518,35 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O59" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -15608,15 +15624,13 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" ht="18" customHeight="1">
+    <row r="62" spans="1:30">
       <c r="A62" s="3"/>
-      <c r="B62" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -15642,13 +15656,15 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" ht="18" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
+      <c r="B63" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -15674,17 +15690,13 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
     </row>
-    <row r="64" spans="1:30" ht="34">
+    <row r="64" spans="1:30">
       <c r="A64" s="3"/>
-      <c r="B64" s="7">
-        <v>1</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -15713,10 +15725,10 @@
     <row r="65" spans="1:30" ht="34">
       <c r="A65" s="3"/>
       <c r="B65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -15748,15 +15760,15 @@
     </row>
     <row r="66" spans="1:30" ht="34">
       <c r="A66" s="3"/>
-      <c r="B66" s="8">
-        <v>3</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="B66" s="7">
+        <v>2</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -15782,10 +15794,14 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" ht="34">
       <c r="A67" s="3"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
+      <c r="B67" s="8">
+        <v>3</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -15816,11 +15832,11 @@
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -17127,36 +17143,36 @@
       <c r="AD108" s="3"/>
     </row>
     <row r="109" spans="1:30">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
       <c r="K109" s="31"/>
       <c r="L109" s="31"/>
       <c r="M109" s="31"/>
       <c r="N109" s="31"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="10"/>
-      <c r="AC109" s="10"/>
-      <c r="AD109" s="10"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="10"/>
@@ -46086,18 +46102,50 @@
       <c r="AC1013" s="10"/>
       <c r="AD1013" s="10"/>
     </row>
+    <row r="1014" spans="1:30">
+      <c r="A1014" s="10"/>
+      <c r="B1014" s="10"/>
+      <c r="C1014" s="10"/>
+      <c r="D1014" s="10"/>
+      <c r="E1014" s="10"/>
+      <c r="F1014" s="10"/>
+      <c r="G1014" s="10"/>
+      <c r="H1014" s="10"/>
+      <c r="I1014" s="10"/>
+      <c r="J1014" s="10"/>
+      <c r="K1014" s="31"/>
+      <c r="L1014" s="31"/>
+      <c r="M1014" s="31"/>
+      <c r="N1014" s="31"/>
+      <c r="O1014" s="10"/>
+      <c r="P1014" s="10"/>
+      <c r="Q1014" s="10"/>
+      <c r="R1014" s="10"/>
+      <c r="S1014" s="10"/>
+      <c r="T1014" s="10"/>
+      <c r="U1014" s="10"/>
+      <c r="V1014" s="10"/>
+      <c r="W1014" s="10"/>
+      <c r="X1014" s="10"/>
+      <c r="Y1014" s="10"/>
+      <c r="Z1014" s="10"/>
+      <c r="AA1014" s="10"/>
+      <c r="AB1014" s="10"/>
+      <c r="AC1014" s="10"/>
+      <c r="AD1014" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B62:F63"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="B9:C16"/>
-    <mergeCell ref="B6:J8"/>
-    <mergeCell ref="B17:C27"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="B33:C40"/>
-    <mergeCell ref="B41:C49"/>
-    <mergeCell ref="B50:C53"/>
-    <mergeCell ref="B54:C58"/>
+    <mergeCell ref="B63:F64"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="B10:C17"/>
+    <mergeCell ref="B7:J9"/>
+    <mergeCell ref="B18:C28"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="B34:C41"/>
+    <mergeCell ref="B42:C50"/>
+    <mergeCell ref="B51:C54"/>
+    <mergeCell ref="B55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46132,10 +46180,10 @@
       </c>
     </row>
     <row r="6" spans="4:6" ht="26" thickTop="1">
-      <c r="D6" s="46">
+      <c r="D6" s="48">
         <v>1</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="48" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -46143,24 +46191,24 @@
       </c>
     </row>
     <row r="7" spans="4:6">
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="26">
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="25.5">
-      <c r="D9" s="46">
+      <c r="D9" s="48">
         <v>2</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -46168,24 +46216,24 @@
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="46">
+      <c r="D12" s="48">
         <v>3</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="48" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -46193,24 +46241,24 @@
       </c>
     </row>
     <row r="13" spans="4:6">
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="25">
-      <c r="D15" s="46">
+      <c r="D15" s="48">
         <v>4</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="48" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -46218,24 +46266,24 @@
       </c>
     </row>
     <row r="16" spans="4:6" ht="26">
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="38">
-      <c r="D18" s="46">
+      <c r="D18" s="48">
         <v>5</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="48" t="s">
         <v>132</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -46243,24 +46291,24 @@
       </c>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="46">
+      <c r="D21" s="48">
         <v>6</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="48" t="s">
         <v>92</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -46268,24 +46316,24 @@
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="38">
-      <c r="D24" s="46">
+      <c r="D24" s="48">
         <v>7</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="48" t="s">
         <v>131</v>
       </c>
       <c r="F24" s="13" t="s">
@@ -46293,24 +46341,24 @@
       </c>
     </row>
     <row r="25" spans="4:6">
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="26">
-      <c r="D27" s="46">
+      <c r="D27" s="48">
         <v>8</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="48" t="s">
         <v>133</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -46318,24 +46366,24 @@
       </c>
     </row>
     <row r="28" spans="4:6" ht="26">
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="4:6">
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="25">
-      <c r="D30" s="46">
+      <c r="D30" s="48">
         <v>9</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -46343,24 +46391,24 @@
       </c>
     </row>
     <row r="31" spans="4:6">
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="4:6">
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="46">
+      <c r="D33" s="48">
         <v>10</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -46368,24 +46416,24 @@
       </c>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="25">
-      <c r="D36" s="46">
+      <c r="D36" s="48">
         <v>11</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="48" t="s">
         <v>134</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -46393,24 +46441,24 @@
       </c>
     </row>
     <row r="37" spans="4:6">
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" spans="4:6">
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="37.5">
-      <c r="D39" s="46">
+      <c r="D39" s="48">
         <v>12</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="48" t="s">
         <v>135</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -46418,24 +46466,24 @@
       </c>
     </row>
     <row r="40" spans="4:6">
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="4:6">
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="25">
-      <c r="D42" s="46">
+      <c r="D42" s="48">
         <v>13</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="48" t="s">
         <v>131</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -46443,24 +46491,24 @@
       </c>
     </row>
     <row r="43" spans="4:6">
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="75.5">
-      <c r="D45" s="46">
+      <c r="D45" s="48">
         <v>14</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="48" t="s">
         <v>136</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -46468,24 +46516,24 @@
       </c>
     </row>
     <row r="46" spans="4:6" ht="26">
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="47" spans="4:6">
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="37.5">
-      <c r="D48" s="46">
+      <c r="D48" s="48">
         <v>15</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="48" t="s">
         <v>137</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -46493,24 +46541,24 @@
       </c>
     </row>
     <row r="49" spans="4:6" ht="26">
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="4:6">
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="25">
-      <c r="D51" s="46">
+      <c r="D51" s="48">
         <v>16</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="48" t="s">
         <v>138</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -46518,24 +46566,24 @@
       </c>
     </row>
     <row r="52" spans="4:6">
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="53" spans="4:6">
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="25">
-      <c r="D54" s="46">
+      <c r="D54" s="48">
         <v>17</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="48" t="s">
         <v>138</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -46543,24 +46591,24 @@
       </c>
     </row>
     <row r="55" spans="4:6">
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="4:6">
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="4:6">
-      <c r="D57" s="46">
+      <c r="D57" s="48">
         <v>18</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F57" s="13" t="s">
@@ -46568,24 +46616,24 @@
       </c>
     </row>
     <row r="58" spans="4:6">
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="59" spans="4:6">
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
       <c r="F59" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="34">
-      <c r="D60" s="46">
+      <c r="D60" s="48">
         <v>19</v>
       </c>
-      <c r="E60" s="46" t="s">
+      <c r="E60" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F60" s="16" t="s">
@@ -46593,24 +46641,24 @@
       </c>
     </row>
     <row r="61" spans="4:6">
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
       <c r="F61" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" spans="4:6">
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
       <c r="F62" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="34">
-      <c r="D63" s="46">
+      <c r="D63" s="48">
         <v>20</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="48" t="s">
         <v>83</v>
       </c>
       <c r="F63" s="16" t="s">
@@ -46618,24 +46666,24 @@
       </c>
     </row>
     <row r="64" spans="4:6">
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="65" spans="4:6">
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="34">
-      <c r="D66" s="46">
+      <c r="D66" s="48">
         <v>21</v>
       </c>
-      <c r="E66" s="46" t="s">
+      <c r="E66" s="48" t="s">
         <v>83</v>
       </c>
       <c r="F66" s="16" t="s">
@@ -46643,24 +46691,24 @@
       </c>
     </row>
     <row r="67" spans="4:6" ht="26">
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="68" spans="4:6">
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="34">
-      <c r="D69" s="46">
+      <c r="D69" s="48">
         <v>22</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="48" t="s">
         <v>92</v>
       </c>
       <c r="F69" s="16" t="s">
@@ -46668,24 +46716,24 @@
       </c>
     </row>
     <row r="70" spans="4:6" ht="26">
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="46">
+      <c r="D72" s="48">
         <v>23</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="48" t="s">
         <v>114</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -46693,24 +46741,24 @@
       </c>
     </row>
     <row r="73" spans="4:6" ht="26">
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
       <c r="F73" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
       <c r="F74" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="46">
+      <c r="D75" s="48">
         <v>24</v>
       </c>
-      <c r="E75" s="46" t="s">
+      <c r="E75" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -46718,24 +46766,24 @@
       </c>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
       <c r="F76" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
       <c r="F77" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="34">
-      <c r="D78" s="46">
+      <c r="D78" s="48">
         <v>25</v>
       </c>
-      <c r="E78" s="46" t="s">
+      <c r="E78" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="16" t="s">
@@ -46743,15 +46791,15 @@
       </c>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="12" t="s">
         <v>179</v>
       </c>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="356">
   <si>
     <t>select MEM_ID, MEM_NICK, MEM_NM from MEM_TBL limit 10 offset N;</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>select M.MEM_ID, M.MEM_NICK, M.MEM_NM, M.MEM_STAT, F.FILE_PATH from MEM_TBL M inner join FILE_TBL F on M.FILE_IDX = F.FILE_IDX where M.MEM_ID = 'ID' and M.ACVT = TRUE and M.MEM_PWD = hex(aes_encrypt('PWD', '암호화 키'));</t>
-  </si>
-  <si>
-    <t>select S.STAR_IDX, S.STAR_NM, S.STAR_TYP, S.STAR_DBT_DATE, S.CMPY_NM, F.FILE_PATH FROM STAR_TBL S inner join FILE_TBL F on S.FILE_IDX = F.FILE_IDX limit 10 offset N;</t>
   </si>
   <si>
     <t>select G.GRP_IDX, G.CLB_SITE from GRP_TBL G inner join STAR_TBL S on G.STAR_IDX = S.STAR_IDX where G.STAR_IDX = '인덱스';</t>
@@ -195,12 +192,6 @@
     <t>즐겨찾기에 추가한다.</t>
   </si>
   <si>
-    <t>게시글 테이블
-(파일, 게시글파일, 
-태그, 게시글 태그,
-추천 포함)</t>
-  </si>
-  <si>
     <t>게시글을 등록한다.</t>
   </si>
   <si>
@@ -10761,12 +10752,6 @@
   </si>
   <si>
     <t>update from POST_TBL set POST_TTL = '게시글제목', POST_DATE = SYSDATE(), POST_CON = '게시글내용' where POST_IDX = '게시글인덱스';</t>
-  </si>
-  <si>
-    <t>delete PT, PFT, FT from POST_TABLE PT inner join POST_FILE_TBL PFT on PT.POST_IDX = PFT.POST_IDX inner join FILE_TBL FT on PFT.FILE_IDX = FT.FILE_IDX where PT.POST_IDX = '게시글인덱스';</t>
-  </si>
-  <si>
-    <t>insert into RECM_TBL(POST_IDX, MEM_ID) select '게시글인덱스', '회원아이디' from DUAL where not exists (select * from RECM_TBL where POST_IDX = '게시글인덱스' and MEM_ID = '회원아이디');</t>
   </si>
   <si>
     <t>insert into CMNT_TBL (CMNT_CON, CMNT_DATE, POST_IDX, MEM_ID, HIGH_CMNT_IDX) values ('댓글내용', SYSDATE(), '게시글인덱스', '회원아이디', '상위댓글인덱스');</t>
@@ -11047,10 +11032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update GRP_TBL GT inner join STAR_TBL ST on GT.STAR_IDX = ST.STAR_IDX inner join FILE_TBL FT on ST.FILE_IDX = FT.FILE_IDX set CLB_SITE = '사이트', ST.STAR_DBT_DATE = '데뷔날짜', FT.FILE_NM = '파일이름', FT.FILE_PATH = '파일 경로' where GT.GRP_IDX = '그룹인덱스';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update MEM_TBL M LEFT OUTER JOIN FILE_TBL F ON M.FILE_IDX = F.FILE_IDX SET M.MEM_PWD = hex(aes_encrypt('암호 문자열', '암호화 키')), M.MEM_NICK = '닉네임', M.MEM_NM = '이름', F.FILE_NM = '파일 이름', F.FILE_PATH = '파일경로' where M.MEM_ID = '아이디';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11132,9 +11113,6 @@
     <t>/like/star/do.go</t>
   </si>
   <si>
-    <t>/tag/star/do.go</t>
-  </si>
-  <si>
     <t>쿼리 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11202,6 +11180,85 @@
   <si>
     <t>insert into MM_TAG_TBL (TAG_NM, MM_IDX) values ('태그이름', '밈인덱스');</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 테이블
+(파일, 게시글파일, 
+태그, 게시글 태그,
+추천 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select S.STAR_IDX, S.STAR_NM, S.STAR_TYP, S.STAR_DBT_DATE, S.CMPY_NM, F.FILE_PATH, F.FILE_NM FROM STAR_TBL S inner join FILE_TBL F on S.FILE_IDX = F.FILE_IDX limit 10 offset N;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update GRP_TBL GT inner join STAR_TBL ST on GT.STAR_IDX = ST.STAR_IDX inner join FILE_TBL FT on ST.FILE_IDX = FT.FILE_IDX set CLB_SITE = '사이트', ST.STAR_DBT_DATE = '데뷔날짜', FT.FILE_NM = '파일이름', FT.FILE_PATH = '파일 경로' where GT.GRP_IDX = '그룹인덱스';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연예인의 태그를 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from STAR_TAG_TBL STT where STT.STAR_IDX = '연예인인덱스' and STT.TAG_NM = '태그이름'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_tag_star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tag/add/star/do.go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tag/del/star/do.go</t>
+  </si>
+  <si>
+    <t>밈의 태그를 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_tag_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from MM_TAG_TBL where MM_IDX = '밈인덱스' and TAG_NM = '태그이름'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/del/tag/mm/do.my</t>
+  </si>
+  <si>
+    <t>delete PT, PFT, FT from POST_TABLE PT left outer join POST_FILE_TBL PFT on PT.POST_IDX = PFT.POST_IDX left outer join FILE_TBL FT on PFT.FILE_IDX = FT.FILE_IDX where PT.POST_IDX = '게시글인덱스';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into RECM_TBL(POST_IDX, MEM_ID) select '게시글인덱스', '회원아이디' from DUAL where not exists (select * from RECM_TBL where POST_IDX = '게시글인덱스' and MEM_ID = '회원아이디');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crt/post/do.go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/srch/list/post/ttl/do</t>
+  </si>
+  <si>
+    <t>/srch/list/post/tag/do</t>
+  </si>
+  <si>
+    <t>/srch/post/do</t>
+  </si>
+  <si>
+    <t>/fix/post/do.my</t>
+  </si>
+  <si>
+    <t>/del/post/do.my</t>
+  </si>
+  <si>
+    <t>/like/post/do.my</t>
   </si>
 </sst>
 </file>
@@ -11372,7 +11429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -11423,11 +11480,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11515,6 +11634,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11534,6 +11656,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11601,7 +11747,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11651,7 +11797,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11701,7 +11847,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11751,7 +11897,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11801,7 +11947,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11851,7 +11997,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11901,7 +12047,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11951,7 +12097,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12001,7 +12147,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12051,7 +12197,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12101,7 +12247,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12151,7 +12297,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12201,7 +12347,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12251,7 +12397,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12301,7 +12447,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12351,7 +12497,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12401,7 +12547,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12451,7 +12597,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12501,7 +12647,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12551,7 +12697,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12601,7 +12747,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12651,7 +12797,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12701,7 +12847,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12751,7 +12897,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12801,7 +12947,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13091,7 +13237,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13099,10 +13245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1014"/>
+  <dimension ref="A1:AD1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13118,35 +13264,35 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="B1" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="19" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:30">
       <c r="B3" s="19" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="B4" s="42" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="B5" s="19" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="37" customFormat="1">
       <c r="A6" s="19"/>
       <c r="B6" s="37" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -13178,17 +13324,17 @@
     </row>
     <row r="7" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="B7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
@@ -13212,38 +13358,38 @@
     </row>
     <row r="8" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="40" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="Q8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="R8" s="23" t="s">
         <v>14</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -13260,21 +13406,21 @@
     </row>
     <row r="9" spans="1:30" ht="18" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="32"/>
       <c r="O9" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -13294,35 +13440,35 @@
     </row>
     <row r="10" spans="1:30" ht="18" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="J10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>21</v>
-      </c>
       <c r="K10" s="34" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
@@ -13342,30 +13488,30 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K11" s="34" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>0</v>
@@ -13388,30 +13534,30 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="J12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K12" s="34" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>1</v>
@@ -13434,33 +13580,33 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="J13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K13" s="34" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -13480,33 +13626,33 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K14" s="34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -13526,33 +13672,33 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="J15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K15" s="34" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -13572,30 +13718,30 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="26" t="s">
-        <v>21</v>
-      </c>
       <c r="K16" s="34" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>2</v>
@@ -13618,25 +13764,25 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="3"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K17" s="34" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
@@ -13660,35 +13806,35 @@
     </row>
     <row r="18" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="J18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K18" s="34" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -13708,33 +13854,33 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="3"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="J19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K19" s="34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -13754,33 +13900,33 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="3"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="J20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>21</v>
-      </c>
       <c r="K20" s="34" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>3</v>
+        <v>336</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -13800,33 +13946,33 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K21" s="34" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -13846,33 +13992,33 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K22" s="34" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -13892,33 +14038,33 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="3"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="J23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K23" s="34" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -13938,33 +14084,33 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="3"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="J24" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K24" s="34" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -13984,35 +14130,35 @@
     </row>
     <row r="25" spans="1:30" ht="18" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
+        <v>315</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="J25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K25" s="34" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
       <c r="N25" s="34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -14032,35 +14178,35 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+        <v>315</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="J26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K26" s="34" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -14080,33 +14226,33 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K27" s="34" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -14126,33 +14272,33 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="3"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K28" s="34" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="34" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -14162,47 +14308,45 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y28" s="44"/>
+      <c r="X28" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y28" s="45"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30" ht="18" customHeight="1">
+    <row r="29" spans="1:30">
       <c r="A29" s="3"/>
-      <c r="B29" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="J29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K29" s="34" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -14212,43 +14356,45 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" ht="18" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
+      <c r="B30" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="46"/>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="J30" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K30" s="34" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>7</v>
+        <v>256</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -14266,35 +14412,35 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" ht="18" customHeight="1">
+    <row r="31" spans="1:30">
       <c r="A31" s="3"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="J31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K31" s="34" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>8</v>
+        <v>257</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -14312,35 +14458,35 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" ht="18" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="J32" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K32" s="34" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -14359,45 +14505,41 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="J33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K33" s="34" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="O33" s="41" t="s">
-        <v>10</v>
+        <v>259</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -14408,44 +14550,46 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30" ht="18" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+    <row r="34" spans="1:30">
+      <c r="A34" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="J34" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K34" s="34" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="O34" s="36" t="s">
-        <v>327</v>
+        <v>260</v>
+      </c>
+      <c r="O34" s="41" t="s">
+        <v>9</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="U34" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -14456,35 +14600,37 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" ht="18" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="48"/>
       <c r="D35" s="2" t="s">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="J35" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="26" t="s">
-        <v>21</v>
-      </c>
       <c r="K35" s="34" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
       <c r="N35" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>235</v>
+        <v>261</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>321</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -14504,33 +14650,33 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="3"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="J36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="26" t="s">
-        <v>21</v>
-      </c>
       <c r="K36" s="34" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
       <c r="N36" s="34" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -14550,28 +14696,34 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="3"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="J37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="34"/>
+      <c r="K37" s="34" t="s">
+        <v>329</v>
+      </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="19"/>
+      <c r="N37" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>232</v>
+      </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
@@ -14590,34 +14742,28 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="3"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="J38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>336</v>
-      </c>
+      <c r="K38" s="34"/>
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
-      <c r="N38" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>328</v>
-      </c>
+      <c r="N38" s="34"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
@@ -14634,35 +14780,35 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
-    <row r="39" spans="1:30" ht="17.399999999999999" customHeight="1">
+    <row r="39" spans="1:30">
       <c r="A39" s="3"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="J39" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K39" s="34" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
       <c r="N39" s="34" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -14680,35 +14826,35 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="J40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="K40" s="34" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
       <c r="N40" s="34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -14728,28 +14874,34 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="3"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="J41" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="34"/>
+      <c r="K41" s="34" t="s">
+        <v>332</v>
+      </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="19"/>
+      <c r="N41" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
@@ -14766,35 +14918,35 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
     </row>
-    <row r="42" spans="1:30" ht="18" customHeight="1">
+    <row r="42" spans="1:30">
       <c r="A42" s="3"/>
-      <c r="B42" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="J42" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="34"/>
+      <c r="K42" s="34" t="s">
+        <v>346</v>
+      </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>216</v>
+        <v>344</v>
+      </c>
+      <c r="O42" s="42" t="s">
+        <v>345</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -14812,34 +14964,30 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30" ht="18" customHeight="1">
+    <row r="43" spans="1:30">
       <c r="A43" s="3"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="26" t="s">
+      <c r="J43" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
-      <c r="N43" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="O43" s="19" t="s">
-        <v>214</v>
-      </c>
+      <c r="N43" s="34"/>
+      <c r="O43" s="19"/>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
@@ -14856,33 +15004,37 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" ht="18" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="B44" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="46"/>
       <c r="D44" s="1" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="J44" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
+      <c r="K44" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="L44" s="51"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="O44" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -14900,33 +15052,33 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" ht="18" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="J45" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="51"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -14946,31 +15098,33 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="3"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="1" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="J46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="34" t="s">
+        <v>350</v>
+      </c>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
       <c r="N46" s="34" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="O46" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
@@ -14990,28 +15144,30 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="3"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="1" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="27" t="s">
+      <c r="J47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="34"/>
+      <c r="K47" s="34" t="s">
+        <v>351</v>
+      </c>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
       <c r="N47" s="34" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O47" s="19" t="s">
         <v>219</v>
@@ -15034,31 +15190,33 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="3"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="1" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="J48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="34" t="s">
+        <v>352</v>
+      </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -15078,31 +15236,33 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="3"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="J49" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
+      <c r="K49" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="L49" s="51"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -15122,31 +15282,31 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="3"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="1" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="H50" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="J50" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="51"/>
       <c r="M50" s="34"/>
       <c r="N50" s="34" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -15164,35 +15324,35 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30" ht="18" customHeight="1">
+    <row r="51" spans="1:30">
       <c r="A51" s="3"/>
-      <c r="B51" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="J51" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" s="34"/>
+      <c r="K51" s="34" t="s">
+        <v>354</v>
+      </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
       <c r="N51" s="34" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O51" s="19" t="s">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -15212,31 +15372,33 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="3"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="J52" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="34" t="s">
+        <v>355</v>
+      </c>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
       <c r="N52" s="34" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -15254,33 +15416,35 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" ht="18" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="48"/>
       <c r="D53" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
       <c r="H53" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="J53" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
       <c r="N53" s="34" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -15300,31 +15464,31 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="3"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="J54" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
       <c r="N54" s="34" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -15342,35 +15506,33 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
-    <row r="55" spans="1:30" ht="18" customHeight="1">
+    <row r="55" spans="1:30">
       <c r="A55" s="3"/>
-      <c r="B55" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="J55" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="34" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -15390,31 +15552,31 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="3"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="26" t="s">
+      <c r="J56" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
       <c r="N56" s="34" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -15432,30 +15594,36 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" ht="18" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
+      <c r="B57" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="46"/>
       <c r="D57" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
       <c r="H57" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="J57" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="19"/>
+      <c r="N57" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O57" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
@@ -15474,31 +15642,31 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="3"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
       <c r="H58" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="27" t="s">
+      <c r="J58" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
       <c r="M58" s="34"/>
       <c r="N58" s="34" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -15518,32 +15686,28 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="3"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
       <c r="H59" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="J59" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
       <c r="M59" s="34"/>
-      <c r="N59" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="O59" s="19" t="s">
-        <v>230</v>
-      </c>
+      <c r="N59" s="34"/>
+      <c r="O59" s="19"/>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
@@ -15562,23 +15726,35 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O60" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -15594,23 +15770,35 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O61" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
@@ -15656,15 +15844,13 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30" ht="18" customHeight="1">
+    <row r="63" spans="1:30">
       <c r="A63" s="3"/>
-      <c r="B63" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -15692,11 +15878,11 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="3"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -15722,17 +15908,15 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:30" ht="34">
+    <row r="65" spans="1:30" ht="18" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="7">
-        <v>1</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -15758,17 +15942,13 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:30" ht="34">
+    <row r="66" spans="1:30">
       <c r="A66" s="3"/>
-      <c r="B66" s="7">
-        <v>2</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -15796,15 +15976,15 @@
     </row>
     <row r="67" spans="1:30" ht="34">
       <c r="A67" s="3"/>
-      <c r="B67" s="8">
-        <v>3</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -15830,13 +16010,17 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" ht="34">
       <c r="A68" s="3"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
+      <c r="B68" s="7">
+        <v>2</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -15862,13 +16046,17 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" ht="34">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="B69" s="8">
+        <v>3</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -15896,11 +16084,11 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -17175,68 +17363,68 @@
       <c r="AD109" s="3"/>
     </row>
     <row r="110" spans="1:30">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
       <c r="K110" s="31"/>
       <c r="L110" s="31"/>
       <c r="M110" s="31"/>
       <c r="N110" s="31"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="10"/>
-      <c r="W110" s="10"/>
-      <c r="X110" s="10"/>
-      <c r="Y110" s="10"/>
-      <c r="Z110" s="10"/>
-      <c r="AA110" s="10"/>
-      <c r="AB110" s="10"/>
-      <c r="AC110" s="10"/>
-      <c r="AD110" s="10"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
+      <c r="AD110" s="3"/>
     </row>
     <row r="111" spans="1:30">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
       <c r="K111" s="31"/>
       <c r="L111" s="31"/>
       <c r="M111" s="31"/>
       <c r="N111" s="31"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="10"/>
-      <c r="Q111" s="10"/>
-      <c r="R111" s="10"/>
-      <c r="S111" s="10"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="10"/>
-      <c r="V111" s="10"/>
-      <c r="W111" s="10"/>
-      <c r="X111" s="10"/>
-      <c r="Y111" s="10"/>
-      <c r="Z111" s="10"/>
-      <c r="AA111" s="10"/>
-      <c r="AB111" s="10"/>
-      <c r="AC111" s="10"/>
-      <c r="AD111" s="10"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
+      <c r="AD111" s="3"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="10"/>
@@ -46134,18 +46322,84 @@
       <c r="AC1014" s="10"/>
       <c r="AD1014" s="10"/>
     </row>
+    <row r="1015" spans="1:30">
+      <c r="A1015" s="10"/>
+      <c r="B1015" s="10"/>
+      <c r="C1015" s="10"/>
+      <c r="D1015" s="10"/>
+      <c r="E1015" s="10"/>
+      <c r="F1015" s="10"/>
+      <c r="G1015" s="10"/>
+      <c r="H1015" s="10"/>
+      <c r="I1015" s="10"/>
+      <c r="J1015" s="10"/>
+      <c r="K1015" s="31"/>
+      <c r="L1015" s="31"/>
+      <c r="M1015" s="31"/>
+      <c r="N1015" s="31"/>
+      <c r="O1015" s="10"/>
+      <c r="P1015" s="10"/>
+      <c r="Q1015" s="10"/>
+      <c r="R1015" s="10"/>
+      <c r="S1015" s="10"/>
+      <c r="T1015" s="10"/>
+      <c r="U1015" s="10"/>
+      <c r="V1015" s="10"/>
+      <c r="W1015" s="10"/>
+      <c r="X1015" s="10"/>
+      <c r="Y1015" s="10"/>
+      <c r="Z1015" s="10"/>
+      <c r="AA1015" s="10"/>
+      <c r="AB1015" s="10"/>
+      <c r="AC1015" s="10"/>
+      <c r="AD1015" s="10"/>
+    </row>
+    <row r="1016" spans="1:30">
+      <c r="A1016" s="10"/>
+      <c r="B1016" s="10"/>
+      <c r="C1016" s="10"/>
+      <c r="D1016" s="10"/>
+      <c r="E1016" s="10"/>
+      <c r="F1016" s="10"/>
+      <c r="G1016" s="10"/>
+      <c r="H1016" s="10"/>
+      <c r="I1016" s="10"/>
+      <c r="J1016" s="10"/>
+      <c r="K1016" s="31"/>
+      <c r="L1016" s="31"/>
+      <c r="M1016" s="31"/>
+      <c r="N1016" s="31"/>
+      <c r="O1016" s="10"/>
+      <c r="P1016" s="10"/>
+      <c r="Q1016" s="10"/>
+      <c r="R1016" s="10"/>
+      <c r="S1016" s="10"/>
+      <c r="T1016" s="10"/>
+      <c r="U1016" s="10"/>
+      <c r="V1016" s="10"/>
+      <c r="W1016" s="10"/>
+      <c r="X1016" s="10"/>
+      <c r="Y1016" s="10"/>
+      <c r="Z1016" s="10"/>
+      <c r="AA1016" s="10"/>
+      <c r="AB1016" s="10"/>
+      <c r="AC1016" s="10"/>
+      <c r="AD1016" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B63:F64"/>
+  <mergeCells count="12">
+    <mergeCell ref="B65:F66"/>
     <mergeCell ref="X28:Y28"/>
     <mergeCell ref="B10:C17"/>
     <mergeCell ref="B7:J9"/>
-    <mergeCell ref="B18:C28"/>
-    <mergeCell ref="B29:C33"/>
-    <mergeCell ref="B34:C41"/>
-    <mergeCell ref="B42:C50"/>
-    <mergeCell ref="B51:C54"/>
-    <mergeCell ref="B55:C59"/>
+    <mergeCell ref="B30:C34"/>
+    <mergeCell ref="B35:C43"/>
+    <mergeCell ref="B44:C52"/>
+    <mergeCell ref="B53:C56"/>
+    <mergeCell ref="B57:C61"/>
+    <mergeCell ref="B18:C29"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="K49:L50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46170,676 +46424,642 @@
   <sheetData>
     <row r="5" spans="4:6" ht="17.5" thickBot="1">
       <c r="D5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="14" t="s">
+    </row>
+    <row r="6" spans="4:6" ht="26" thickTop="1">
+      <c r="D6" s="49">
+        <v>1</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F6" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="26">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="26" thickTop="1">
-      <c r="D6" s="48">
-        <v>1</v>
-      </c>
-      <c r="E6" s="48" t="s">
+    <row r="9" spans="4:6" ht="25.5">
+      <c r="D9" s="49">
+        <v>2</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F9" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="49">
+        <v>3</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="12" t="s">
+    <row r="13" spans="4:6">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="26">
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" ht="25.5">
-      <c r="D9" s="48">
-        <v>2</v>
-      </c>
-      <c r="E9" s="48" t="s">
+    <row r="14" spans="4:6">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="25">
+      <c r="D15" s="49">
+        <v>4</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="26">
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="38">
+      <c r="D18" s="49">
+        <v>5</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="49">
+        <v>6</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="38">
+      <c r="D24" s="49">
+        <v>7</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="26">
+      <c r="D27" s="49">
+        <v>8</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="26">
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="25">
+      <c r="D30" s="49">
+        <v>9</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="49">
+        <v>10</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="25">
+      <c r="D36" s="49">
+        <v>11</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="37.5">
+      <c r="D39" s="49">
+        <v>12</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="25">
+      <c r="D42" s="49">
+        <v>13</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="75.5">
+      <c r="D45" s="49">
+        <v>14</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="26">
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="37.5">
+      <c r="D48" s="49">
+        <v>15</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="26">
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="25">
+      <c r="D51" s="49">
+        <v>16</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="25">
+      <c r="D54" s="49">
+        <v>17</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6">
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="D57" s="49">
+        <v>18</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="34">
+      <c r="D60" s="49">
+        <v>19</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" ht="34">
+      <c r="D63" s="49">
+        <v>20</v>
+      </c>
+      <c r="E63" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="48">
-        <v>3</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" ht="25">
-      <c r="D15" s="48">
-        <v>4</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" ht="26">
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="38">
-      <c r="D18" s="48">
-        <v>5</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="12" t="s">
+      <c r="F63" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" ht="34">
+      <c r="D66" s="49">
+        <v>21</v>
+      </c>
+      <c r="E66" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="26">
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="34">
+      <c r="D69" s="49">
+        <v>22</v>
+      </c>
+      <c r="E69" s="49" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="48">
-        <v>6</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" ht="38">
-      <c r="D24" s="48">
-        <v>7</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" ht="26">
-      <c r="D27" s="48">
-        <v>8</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="26">
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" ht="25">
-      <c r="D30" s="48">
-        <v>9</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="48">
-        <v>10</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="25">
-      <c r="D36" s="48">
-        <v>11</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="37.5">
-      <c r="D39" s="48">
-        <v>12</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="25">
-      <c r="D42" s="48">
-        <v>13</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6">
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" ht="75.5">
-      <c r="D45" s="48">
-        <v>14</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" ht="26">
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="12" t="s">
+      <c r="F69" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" ht="26">
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72" s="49">
+        <v>23</v>
+      </c>
+      <c r="E72" s="49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="4:6">
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" ht="37.5">
-      <c r="D48" s="48">
-        <v>15</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="26">
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="25">
-      <c r="D51" s="48">
-        <v>16</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6">
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" ht="25">
-      <c r="D54" s="48">
-        <v>17</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6">
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6">
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6">
-      <c r="D57" s="48">
-        <v>18</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6">
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6">
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" ht="34">
-      <c r="D60" s="48">
-        <v>19</v>
-      </c>
-      <c r="E60" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6">
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6">
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" ht="34">
-      <c r="D63" s="48">
-        <v>20</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6">
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6">
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" ht="34">
-      <c r="D66" s="48">
-        <v>21</v>
-      </c>
-      <c r="E66" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" ht="26">
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="12" t="s">
+      <c r="F72" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" ht="26">
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="4:6">
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="12" t="s">
+    <row r="74" spans="4:6">
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="4:6" ht="34">
-      <c r="D69" s="48">
-        <v>22</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" ht="26">
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6">
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6">
-      <c r="D72" s="48">
-        <v>23</v>
-      </c>
-      <c r="E72" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" s="5" t="s">
+    <row r="75" spans="4:6">
+      <c r="D75" s="49">
+        <v>24</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="4:6" ht="26">
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6">
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6">
-      <c r="D75" s="48">
-        <v>24</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6">
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="12" t="s">
+    <row r="78" spans="4:6" ht="34">
+      <c r="D78" s="49">
+        <v>25</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="4:6">
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="12" t="s">
+    <row r="80" spans="4:6">
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="12" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" ht="34">
-      <c r="D78" s="48">
-        <v>25</v>
-      </c>
-      <c r="E78" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6">
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6">
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="12" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -46856,6 +47076,40 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46878,12 +47132,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -46936,12 +47190,12 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -46949,7 +47203,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -46957,7 +47211,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -46965,12 +47219,12 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -46978,12 +47232,12 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -46991,7 +47245,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -46999,17 +47253,17 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -47017,12 +47271,12 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -47030,22 +47284,22 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="B105" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="B106" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -47053,7 +47307,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -47061,7 +47315,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -47069,7 +47323,7 @@
         <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -47077,12 +47331,12 @@
         <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="B157" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -47090,12 +47344,12 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -47103,12 +47357,12 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="B182" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -47116,12 +47370,12 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="B193" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -47129,12 +47383,12 @@
         <v>18</v>
       </c>
       <c r="B203" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="B204" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -47142,17 +47396,17 @@
         <v>19</v>
       </c>
       <c r="B214" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="B215" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="B216" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -47160,7 +47414,7 @@
         <v>20</v>
       </c>
       <c r="B230" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -47168,7 +47422,7 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -47176,12 +47430,12 @@
         <v>22</v>
       </c>
       <c r="B254" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="B255" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -47189,12 +47443,12 @@
         <v>23</v>
       </c>
       <c r="B266" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="B267" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -47202,17 +47456,17 @@
         <v>24</v>
       </c>
       <c r="B280" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="B281" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="B282" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -47220,12 +47474,12 @@
         <v>25</v>
       </c>
       <c r="B293" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="B294" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="363">
   <si>
     <t>select MEM_ID, MEM_NICK, MEM_NM from MEM_TBL limit 10 offset N;</t>
   </si>
@@ -10767,9 +10767,6 @@
   </si>
   <si>
     <t>delete from CMNT_TBL where CMNT_IDX = '게시글인덱스' or HIGH_CMNT_IDX = '게시글인덱스';</t>
-  </si>
-  <si>
-    <t>insert into SCHE_TBL(SCHE_NM, SCHE_DATE, SCHE_TRM, STAR_IDX, MEM_ID) values ('스케쥴이름', '스케쥴시작날짜', '스케쥴기간', '연예인인덱스', '회원아이디');</t>
   </si>
   <si>
     <t>select * from SCHE_TBL where STAR_IDX = '연예인인덱스' and SCHE_DATE &gt;= '시작달 1일' and SCHE_DATE &lt; '다음달 1일';</t>
@@ -11260,6 +11257,35 @@
   <si>
     <t>/like/post/do.my</t>
   </si>
+  <si>
+    <t>/crt/cmnt/do.go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/srch/list/cmnt/do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fix/cmnt/do.my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/del/cmnt/do.my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into SCHE_TBL(SCHE_NM, SCHE_DATE, SCHE_TRM, STAR_IDX, MEM_ID) values ('스케쥴이름', '스케쥴시작날짜', '스케쥴기간', '연예인인덱스', '회원아이디');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crt/sche/do.go</t>
+  </si>
+  <si>
+    <t>/srch/list/sche/do</t>
+  </si>
+  <si>
+    <t>/fix/sche/do.go</t>
+  </si>
 </sst>
 </file>
 
@@ -11546,7 +11572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11652,18 +11678,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11682,6 +11696,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11747,7 +11774,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11797,7 +11824,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11847,7 +11874,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11897,7 +11924,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11947,7 +11974,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11997,7 +12024,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12047,7 +12074,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12097,7 +12124,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12147,7 +12174,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12197,7 +12224,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12247,7 +12274,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12297,7 +12324,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12347,7 +12374,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12397,7 +12424,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12447,7 +12474,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12497,7 +12524,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12547,7 +12574,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12597,7 +12624,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12647,7 +12674,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12697,7 +12724,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12747,7 +12774,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12797,7 +12824,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12847,7 +12874,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12897,7 +12924,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12947,7 +12974,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13237,7 +13264,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13247,8 +13274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13264,35 +13291,35 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="B1" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:30">
       <c r="B3" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="B4" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="B5" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="37" customFormat="1">
       <c r="A6" s="19"/>
       <c r="B6" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -13368,16 +13395,16 @@
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
       <c r="K8" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="M8" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="M8" s="40" t="s">
-        <v>296</v>
-      </c>
       <c r="N8" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O8" s="20" t="s">
         <v>11</v>
@@ -13460,15 +13487,15 @@
         <v>20</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
@@ -13506,12 +13533,12 @@
         <v>20</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>0</v>
@@ -13552,12 +13579,12 @@
         <v>20</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>1</v>
@@ -13598,15 +13625,15 @@
         <v>20</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -13644,12 +13671,12 @@
         <v>20</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>91</v>
@@ -13690,15 +13717,15 @@
         <v>20</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -13736,12 +13763,12 @@
         <v>20</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>2</v>
@@ -13782,7 +13809,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
@@ -13806,10 +13833,10 @@
     </row>
     <row r="18" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -13826,15 +13853,15 @@
         <v>20</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -13854,8 +13881,8 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="3"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
@@ -13872,15 +13899,15 @@
         <v>20</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -13900,8 +13927,8 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="3"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
@@ -13918,15 +13945,15 @@
         <v>20</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -13946,8 +13973,8 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
@@ -13964,15 +13991,15 @@
         <v>20</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -13992,8 +14019,8 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
@@ -14010,12 +14037,12 @@
         <v>20</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>3</v>
@@ -14038,8 +14065,8 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="3"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
@@ -14056,15 +14083,15 @@
         <v>20</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -14084,8 +14111,8 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="3"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
@@ -14102,15 +14129,15 @@
         <v>20</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -14130,10 +14157,10 @@
     </row>
     <row r="25" spans="1:30" ht="18" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+        <v>314</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
@@ -14150,15 +14177,15 @@
         <v>20</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
       <c r="N25" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -14178,10 +14205,10 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
+        <v>314</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
@@ -14198,12 +14225,12 @@
         <v>20</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O26" s="41" t="s">
         <v>4</v>
@@ -14226,8 +14253,8 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
@@ -14244,12 +14271,12 @@
         <v>20</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>5</v>
@@ -14272,8 +14299,8 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="3"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
@@ -14290,15 +14317,15 @@
         <v>20</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -14320,10 +14347,10 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -14338,15 +14365,15 @@
         <v>20</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -14386,15 +14413,15 @@
         <v>20</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -14432,12 +14459,12 @@
         <v>20</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O31" s="6" t="s">
         <v>6</v>
@@ -14478,12 +14505,12 @@
         <v>20</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>7</v>
@@ -14524,12 +14551,12 @@
         <v>20</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O33" s="5" t="s">
         <v>8</v>
@@ -14552,7 +14579,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -14572,12 +14599,12 @@
         <v>20</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O34" s="41" t="s">
         <v>9</v>
@@ -14622,15 +14649,15 @@
         <v>20</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
       <c r="N35" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -14653,7 +14680,7 @@
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -14668,15 +14695,15 @@
         <v>20</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
       <c r="N36" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -14699,7 +14726,7 @@
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -14714,15 +14741,15 @@
         <v>20</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
       <c r="N37" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -14800,15 +14827,15 @@
         <v>20</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
       <c r="N39" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -14846,15 +14873,15 @@
         <v>20</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
       <c r="N40" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -14892,15 +14919,15 @@
         <v>20</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -14923,7 +14950,7 @@
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -14938,15 +14965,15 @@
         <v>20</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" s="42" t="s">
         <v>344</v>
-      </c>
-      <c r="O42" s="42" t="s">
-        <v>345</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -15007,7 +15034,7 @@
     <row r="44" spans="1:30" ht="18" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="1" t="s">
@@ -15025,13 +15052,13 @@
       <c r="J44" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="L44" s="51"/>
+      <c r="K44" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" s="56"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O44" s="19" t="s">
         <v>214</v>
@@ -15071,11 +15098,11 @@
       <c r="J45" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="52"/>
-      <c r="L45" s="51"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O45" s="19" t="s">
         <v>212</v>
@@ -15101,7 +15128,7 @@
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
       <c r="D46" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -15116,15 +15143,15 @@
         <v>20</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
       <c r="N46" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O46" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
@@ -15162,12 +15189,12 @@
         <v>20</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
       <c r="N47" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O47" s="19" t="s">
         <v>219</v>
@@ -15208,12 +15235,12 @@
         <v>20</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O48" s="19" t="s">
         <v>215</v>
@@ -15253,13 +15280,13 @@
       <c r="J49" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="L49" s="51"/>
+      <c r="K49" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="L49" s="56"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O49" s="19" t="s">
         <v>217</v>
@@ -15299,14 +15326,14 @@
       <c r="J50" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="52"/>
-      <c r="L50" s="51"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="56"/>
       <c r="M50" s="34"/>
       <c r="N50" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -15344,15 +15371,15 @@
         <v>20</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
       <c r="N51" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="O51" s="19" t="s">
-        <v>347</v>
+        <v>270</v>
+      </c>
+      <c r="O51" s="59" t="s">
+        <v>346</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -15390,15 +15417,15 @@
         <v>20</v>
       </c>
       <c r="K52" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
       <c r="N52" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -15437,11 +15464,13 @@
       <c r="J53" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K53" s="34"/>
+      <c r="K53" s="34" t="s">
+        <v>355</v>
+      </c>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
       <c r="N53" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O53" s="19" t="s">
         <v>218</v>
@@ -15481,11 +15510,13 @@
       <c r="J54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="34"/>
+      <c r="K54" s="34" t="s">
+        <v>356</v>
+      </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
       <c r="N54" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O54" s="19" t="s">
         <v>220</v>
@@ -15525,11 +15556,13 @@
       <c r="J55" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="34"/>
+      <c r="K55" s="34" t="s">
+        <v>357</v>
+      </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O55" s="19" t="s">
         <v>221</v>
@@ -15569,11 +15602,13 @@
       <c r="J56" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="34"/>
+      <c r="K56" s="34" t="s">
+        <v>358</v>
+      </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
       <c r="N56" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O56" s="19" t="s">
         <v>222</v>
@@ -15615,14 +15650,16 @@
       <c r="J57" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="34"/>
+      <c r="K57" s="34" t="s">
+        <v>360</v>
+      </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>223</v>
+        <v>359</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -15659,14 +15696,16 @@
       <c r="J58" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="34"/>
+      <c r="K58" s="34" t="s">
+        <v>361</v>
+      </c>
       <c r="L58" s="34"/>
       <c r="M58" s="34"/>
       <c r="N58" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -15743,14 +15782,16 @@
       <c r="J60" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="34"/>
+      <c r="K60" s="34" t="s">
+        <v>362</v>
+      </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
       <c r="N60" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -15787,14 +15828,16 @@
       <c r="J61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="34"/>
+      <c r="K61" s="34" t="s">
+        <v>362</v>
+      </c>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
       <c r="N61" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -46434,10 +46477,10 @@
       </c>
     </row>
     <row r="6" spans="4:6" ht="26" thickTop="1">
-      <c r="D6" s="49">
+      <c r="D6" s="57">
         <v>1</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="57" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -46445,24 +46488,24 @@
       </c>
     </row>
     <row r="7" spans="4:6">
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="26">
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="25.5">
-      <c r="D9" s="49">
+      <c r="D9" s="57">
         <v>2</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="57" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -46470,24 +46513,24 @@
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="49">
+      <c r="D12" s="57">
         <v>3</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="57" t="s">
         <v>128</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -46495,24 +46538,24 @@
       </c>
     </row>
     <row r="13" spans="4:6">
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="25">
-      <c r="D15" s="49">
+      <c r="D15" s="57">
         <v>4</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="57" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -46520,24 +46563,24 @@
       </c>
     </row>
     <row r="16" spans="4:6" ht="26">
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="38">
-      <c r="D18" s="49">
+      <c r="D18" s="57">
         <v>5</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="57" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -46545,24 +46588,24 @@
       </c>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="49">
+      <c r="D21" s="57">
         <v>6</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="57" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -46570,24 +46613,24 @@
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="38">
-      <c r="D24" s="49">
+      <c r="D24" s="57">
         <v>7</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="57" t="s">
         <v>129</v>
       </c>
       <c r="F24" s="13" t="s">
@@ -46595,24 +46638,24 @@
       </c>
     </row>
     <row r="25" spans="4:6">
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="26">
-      <c r="D27" s="49">
+      <c r="D27" s="57">
         <v>8</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="57" t="s">
         <v>131</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -46620,24 +46663,24 @@
       </c>
     </row>
     <row r="28" spans="4:6" ht="26">
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="4:6">
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="25">
-      <c r="D30" s="49">
+      <c r="D30" s="57">
         <v>9</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="57" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -46645,24 +46688,24 @@
       </c>
     </row>
     <row r="31" spans="4:6">
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="4:6">
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="49">
+      <c r="D33" s="57">
         <v>10</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="57" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -46670,24 +46713,24 @@
       </c>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="25">
-      <c r="D36" s="49">
+      <c r="D36" s="57">
         <v>11</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="57" t="s">
         <v>132</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -46695,24 +46738,24 @@
       </c>
     </row>
     <row r="37" spans="4:6">
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="4:6">
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="37.5">
-      <c r="D39" s="49">
+      <c r="D39" s="57">
         <v>12</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="57" t="s">
         <v>133</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -46720,24 +46763,24 @@
       </c>
     </row>
     <row r="40" spans="4:6">
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="4:6">
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="25">
-      <c r="D42" s="49">
+      <c r="D42" s="57">
         <v>13</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="57" t="s">
         <v>129</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -46745,24 +46788,24 @@
       </c>
     </row>
     <row r="43" spans="4:6">
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="75.5">
-      <c r="D45" s="49">
+      <c r="D45" s="57">
         <v>14</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="57" t="s">
         <v>134</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -46770,24 +46813,24 @@
       </c>
     </row>
     <row r="46" spans="4:6" ht="26">
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="4:6">
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="37.5">
-      <c r="D48" s="49">
+      <c r="D48" s="57">
         <v>15</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="57" t="s">
         <v>135</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -46795,24 +46838,24 @@
       </c>
     </row>
     <row r="49" spans="4:6" ht="26">
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="50" spans="4:6">
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="25">
-      <c r="D51" s="49">
+      <c r="D51" s="57">
         <v>16</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="57" t="s">
         <v>136</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -46820,24 +46863,24 @@
       </c>
     </row>
     <row r="52" spans="4:6">
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" spans="4:6">
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="25">
-      <c r="D54" s="49">
+      <c r="D54" s="57">
         <v>17</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="57" t="s">
         <v>136</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -46845,24 +46888,24 @@
       </c>
     </row>
     <row r="55" spans="4:6">
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="56" spans="4:6">
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="4:6">
-      <c r="D57" s="49">
+      <c r="D57" s="57">
         <v>18</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="57" t="s">
         <v>79</v>
       </c>
       <c r="F57" s="13" t="s">
@@ -46870,24 +46913,24 @@
       </c>
     </row>
     <row r="58" spans="4:6">
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
       <c r="F58" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="59" spans="4:6">
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
       <c r="F59" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="34">
-      <c r="D60" s="49">
+      <c r="D60" s="57">
         <v>19</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="57" t="s">
         <v>79</v>
       </c>
       <c r="F60" s="16" t="s">
@@ -46895,24 +46938,24 @@
       </c>
     </row>
     <row r="61" spans="4:6">
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
       <c r="F61" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="4:6">
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
       <c r="F62" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="34">
-      <c r="D63" s="49">
+      <c r="D63" s="57">
         <v>20</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="57" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="16" t="s">
@@ -46920,24 +46963,24 @@
       </c>
     </row>
     <row r="64" spans="4:6">
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
       <c r="F64" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="65" spans="4:6">
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="34">
-      <c r="D66" s="49">
+      <c r="D66" s="57">
         <v>21</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" s="57" t="s">
         <v>81</v>
       </c>
       <c r="F66" s="16" t="s">
@@ -46945,24 +46988,24 @@
       </c>
     </row>
     <row r="67" spans="4:6" ht="26">
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="68" spans="4:6">
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="34">
-      <c r="D69" s="49">
+      <c r="D69" s="57">
         <v>22</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" s="57" t="s">
         <v>90</v>
       </c>
       <c r="F69" s="16" t="s">
@@ -46970,24 +47013,24 @@
       </c>
     </row>
     <row r="70" spans="4:6" ht="26">
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
       <c r="F70" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
       <c r="F71" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="49">
+      <c r="D72" s="57">
         <v>23</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E72" s="57" t="s">
         <v>112</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -46995,24 +47038,24 @@
       </c>
     </row>
     <row r="73" spans="4:6" ht="26">
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
       <c r="F73" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="49">
+      <c r="D75" s="57">
         <v>24</v>
       </c>
-      <c r="E75" s="49" t="s">
+      <c r="E75" s="57" t="s">
         <v>79</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -47020,24 +47063,24 @@
       </c>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
       <c r="F76" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
       <c r="F77" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="34">
-      <c r="D78" s="49">
+      <c r="D78" s="57">
         <v>25</v>
       </c>
-      <c r="E78" s="49" t="s">
+      <c r="E78" s="57" t="s">
         <v>79</v>
       </c>
       <c r="F78" s="16" t="s">
@@ -47045,21 +47088,55 @@
       </c>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
       <c r="F79" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="12" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -47076,40 +47153,6 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -11071,12 +11071,6 @@
     <t>/srch/list/mem/do.admin</t>
   </si>
   <si>
-    <t>/fix/mem/do.go</t>
-  </si>
-  <si>
-    <t>/del/mem/do.go</t>
-  </si>
-  <si>
     <t>/acvt/mem/do</t>
   </si>
   <si>
@@ -11285,6 +11279,14 @@
   </si>
   <si>
     <t>/fix/sche/do.go</t>
+  </si>
+  <si>
+    <t>/fix/mem/do.my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/del/mem/do.my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11663,6 +11665,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11708,7 +11711,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11774,7 +11776,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11824,7 +11826,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11874,7 +11876,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11924,7 +11926,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11974,7 +11976,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12024,7 +12026,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12074,7 +12076,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12124,7 +12126,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12174,7 +12176,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12224,7 +12226,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12274,7 +12276,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12324,7 +12326,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12374,7 +12376,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12424,7 +12426,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12474,7 +12476,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12524,7 +12526,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12574,7 +12576,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12624,7 +12626,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12674,7 +12676,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12724,7 +12726,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12774,7 +12776,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12824,7 +12826,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12874,7 +12876,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12924,7 +12926,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12974,7 +12976,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13264,7 +13266,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13274,8 +13276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13297,23 +13299,23 @@
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:30">
       <c r="B3" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="B4" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="B5" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="37" customFormat="1">
@@ -13351,17 +13353,17 @@
     </row>
     <row r="7" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
@@ -13385,15 +13387,15 @@
     </row>
     <row r="8" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="40" t="s">
         <v>293</v>
       </c>
@@ -13433,15 +13435,15 @@
     </row>
     <row r="9" spans="1:30" ht="18" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -13467,10 +13469,10 @@
     </row>
     <row r="10" spans="1:30" ht="18" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
@@ -13515,8 +13517,8 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
@@ -13561,8 +13563,8 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -13607,8 +13609,8 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
@@ -13625,7 +13627,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -13653,8 +13655,8 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
@@ -13671,7 +13673,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
@@ -13699,8 +13701,8 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
@@ -13717,7 +13719,7 @@
         <v>20</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
@@ -13745,8 +13747,8 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
@@ -13791,8 +13793,8 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="3"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
@@ -13833,10 +13835,10 @@
     </row>
     <row r="18" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -13853,7 +13855,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
@@ -13881,8 +13883,8 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="3"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
@@ -13899,7 +13901,7 @@
         <v>20</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -13927,8 +13929,8 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="3"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
@@ -13945,7 +13947,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -13953,7 +13955,7 @@
         <v>249</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -13973,8 +13975,8 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
@@ -13991,7 +13993,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
@@ -14019,8 +14021,8 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
@@ -14037,7 +14039,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
@@ -14065,8 +14067,8 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="3"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
@@ -14083,7 +14085,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
@@ -14111,8 +14113,8 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="3"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
@@ -14129,7 +14131,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
@@ -14137,7 +14139,7 @@
         <v>280</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -14157,10 +14159,10 @@
     </row>
     <row r="25" spans="1:30" ht="18" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
+        <v>312</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
@@ -14177,7 +14179,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
@@ -14205,10 +14207,10 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+        <v>312</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
@@ -14225,7 +14227,7 @@
         <v>20</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
@@ -14253,8 +14255,8 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
@@ -14271,7 +14273,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -14299,8 +14301,8 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="3"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
@@ -14317,7 +14319,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -14335,10 +14337,10 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="45" t="s">
+      <c r="X28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="Y28" s="45"/>
+      <c r="Y28" s="46"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -14347,10 +14349,10 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -14365,15 +14367,15 @@
         <v>20</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -14393,10 +14395,10 @@
     </row>
     <row r="30" spans="1:30" ht="18" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
@@ -14413,7 +14415,7 @@
         <v>20</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
@@ -14441,8 +14443,8 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="3"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="1" t="s">
         <v>42</v>
       </c>
@@ -14459,7 +14461,7 @@
         <v>20</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
@@ -14487,8 +14489,8 @@
     </row>
     <row r="32" spans="1:30" ht="18" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
@@ -14505,7 +14507,7 @@
         <v>20</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
@@ -14533,8 +14535,8 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="3"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="1" t="s">
         <v>44</v>
       </c>
@@ -14551,7 +14553,7 @@
         <v>20</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
@@ -14579,10 +14581,10 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+        <v>330</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="1" t="s">
         <v>45</v>
       </c>
@@ -14599,7 +14601,7 @@
         <v>20</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
@@ -14629,10 +14631,10 @@
     </row>
     <row r="35" spans="1:30" ht="18" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="2" t="s">
         <v>48</v>
       </c>
@@ -14649,7 +14651,7 @@
         <v>20</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
@@ -14657,7 +14659,7 @@
         <v>260</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -14677,8 +14679,8 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="3"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="2" t="s">
         <v>226</v>
       </c>
@@ -14695,7 +14697,7 @@
         <v>20</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
@@ -14723,8 +14725,8 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="3"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="2" t="s">
         <v>229</v>
       </c>
@@ -14741,7 +14743,7 @@
         <v>20</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
@@ -14769,8 +14771,8 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="3"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="2" t="s">
         <v>49</v>
       </c>
@@ -14809,8 +14811,8 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="3"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="2" t="s">
         <v>50</v>
       </c>
@@ -14827,7 +14829,7 @@
         <v>20</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
@@ -14835,7 +14837,7 @@
         <v>263</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -14855,8 +14857,8 @@
     </row>
     <row r="40" spans="1:30" ht="17.399999999999999" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="2" t="s">
         <v>51</v>
       </c>
@@ -14873,7 +14875,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
@@ -14901,8 +14903,8 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="3"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="2" t="s">
         <v>52</v>
       </c>
@@ -14919,7 +14921,7 @@
         <v>20</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
@@ -14927,7 +14929,7 @@
         <v>266</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -14947,10 +14949,10 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="3"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -14965,15 +14967,15 @@
         <v>20</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -14993,8 +14995,8 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="3"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="2" t="s">
         <v>53</v>
       </c>
@@ -15033,10 +15035,10 @@
     </row>
     <row r="44" spans="1:30" ht="18" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="C44" s="46"/>
+      <c r="B44" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>54</v>
       </c>
@@ -15052,10 +15054,10 @@
       <c r="J44" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="55" t="s">
-        <v>348</v>
-      </c>
-      <c r="L44" s="56"/>
+      <c r="K44" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="L44" s="57"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34" t="s">
         <v>237</v>
@@ -15081,8 +15083,8 @@
     </row>
     <row r="45" spans="1:30" ht="18" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="1" t="s">
         <v>211</v>
       </c>
@@ -15098,8 +15100,8 @@
       <c r="J45" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="55"/>
-      <c r="L45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="57"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34" t="s">
         <v>238</v>
@@ -15125,8 +15127,8 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="3"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="1" t="s">
         <v>227</v>
       </c>
@@ -15143,7 +15145,7 @@
         <v>20</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
@@ -15171,8 +15173,8 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="3"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="1" t="s">
         <v>213</v>
       </c>
@@ -15189,7 +15191,7 @@
         <v>20</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
@@ -15217,8 +15219,8 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="3"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="1" t="s">
         <v>55</v>
       </c>
@@ -15235,7 +15237,7 @@
         <v>20</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
@@ -15263,8 +15265,8 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="3"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="1" t="s">
         <v>56</v>
       </c>
@@ -15280,10 +15282,10 @@
       <c r="J49" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="L49" s="56"/>
+      <c r="K49" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="L49" s="57"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34" t="s">
         <v>269</v>
@@ -15309,8 +15311,8 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="3"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="1" t="s">
         <v>216</v>
       </c>
@@ -15326,8 +15328,8 @@
       <c r="J50" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="55"/>
-      <c r="L50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="57"/>
       <c r="M50" s="34"/>
       <c r="N50" s="34" t="s">
         <v>240</v>
@@ -15353,8 +15355,8 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="3"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="1" t="s">
         <v>57</v>
       </c>
@@ -15371,15 +15373,15 @@
         <v>20</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
       <c r="N51" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="O51" s="59" t="s">
-        <v>346</v>
+      <c r="O51" s="44" t="s">
+        <v>344</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -15399,8 +15401,8 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="3"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="1" t="s">
         <v>58</v>
       </c>
@@ -15417,7 +15419,7 @@
         <v>20</v>
       </c>
       <c r="K52" s="34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
@@ -15425,7 +15427,7 @@
         <v>271</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -15445,10 +15447,10 @@
     </row>
     <row r="53" spans="1:30" ht="18" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="48"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="2" t="s">
         <v>60</v>
       </c>
@@ -15465,7 +15467,7 @@
         <v>20</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
@@ -15493,8 +15495,8 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="3"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="2" t="s">
         <v>61</v>
       </c>
@@ -15511,7 +15513,7 @@
         <v>20</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
@@ -15539,8 +15541,8 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="3"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="2" t="s">
         <v>62</v>
       </c>
@@ -15557,7 +15559,7 @@
         <v>20</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
@@ -15585,8 +15587,8 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="3"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="2" t="s">
         <v>63</v>
       </c>
@@ -15603,7 +15605,7 @@
         <v>20</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
@@ -15631,10 +15633,10 @@
     </row>
     <row r="57" spans="1:30" ht="18" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="46"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="1" t="s">
         <v>65</v>
       </c>
@@ -15651,7 +15653,7 @@
         <v>20</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
@@ -15659,7 +15661,7 @@
         <v>276</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -15679,8 +15681,8 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="3"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="1" t="s">
         <v>66</v>
       </c>
@@ -15697,7 +15699,7 @@
         <v>20</v>
       </c>
       <c r="K58" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L58" s="34"/>
       <c r="M58" s="34"/>
@@ -15725,8 +15727,8 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="3"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="1" t="s">
         <v>67</v>
       </c>
@@ -15765,8 +15767,8 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="3"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="1" t="s">
         <v>68</v>
       </c>
@@ -15783,7 +15785,7 @@
         <v>20</v>
       </c>
       <c r="K60" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
@@ -15811,8 +15813,8 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="3"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="1" t="s">
         <v>69</v>
       </c>
@@ -15829,7 +15831,7 @@
         <v>20</v>
       </c>
       <c r="K61" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
@@ -15953,13 +15955,13 @@
     </row>
     <row r="65" spans="1:30" ht="18" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -15987,11 +15989,11 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="3"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -46477,10 +46479,10 @@
       </c>
     </row>
     <row r="6" spans="4:6" ht="26" thickTop="1">
-      <c r="D6" s="57">
+      <c r="D6" s="58">
         <v>1</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="58" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -46488,24 +46490,24 @@
       </c>
     </row>
     <row r="7" spans="4:6">
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="26">
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="25.5">
-      <c r="D9" s="57">
+      <c r="D9" s="58">
         <v>2</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="58" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -46513,24 +46515,24 @@
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="57">
+      <c r="D12" s="58">
         <v>3</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="58" t="s">
         <v>128</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -46538,24 +46540,24 @@
       </c>
     </row>
     <row r="13" spans="4:6">
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="25">
-      <c r="D15" s="57">
+      <c r="D15" s="58">
         <v>4</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="58" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -46563,24 +46565,24 @@
       </c>
     </row>
     <row r="16" spans="4:6" ht="26">
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="38">
-      <c r="D18" s="57">
+      <c r="D18" s="58">
         <v>5</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="58" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -46588,24 +46590,24 @@
       </c>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="57">
+      <c r="D21" s="58">
         <v>6</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="58" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -46613,24 +46615,24 @@
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="38">
-      <c r="D24" s="57">
+      <c r="D24" s="58">
         <v>7</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="58" t="s">
         <v>129</v>
       </c>
       <c r="F24" s="13" t="s">
@@ -46638,24 +46640,24 @@
       </c>
     </row>
     <row r="25" spans="4:6">
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="26">
-      <c r="D27" s="57">
+      <c r="D27" s="58">
         <v>8</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="58" t="s">
         <v>131</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -46663,24 +46665,24 @@
       </c>
     </row>
     <row r="28" spans="4:6" ht="26">
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="4:6">
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="25">
-      <c r="D30" s="57">
+      <c r="D30" s="58">
         <v>9</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="58" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -46688,24 +46690,24 @@
       </c>
     </row>
     <row r="31" spans="4:6">
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="4:6">
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="57">
+      <c r="D33" s="58">
         <v>10</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="58" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -46713,24 +46715,24 @@
       </c>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="25">
-      <c r="D36" s="57">
+      <c r="D36" s="58">
         <v>11</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="58" t="s">
         <v>132</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -46738,24 +46740,24 @@
       </c>
     </row>
     <row r="37" spans="4:6">
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="4:6">
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
       <c r="F38" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="37.5">
-      <c r="D39" s="57">
+      <c r="D39" s="58">
         <v>12</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="58" t="s">
         <v>133</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -46763,24 +46765,24 @@
       </c>
     </row>
     <row r="40" spans="4:6">
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="4:6">
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="25">
-      <c r="D42" s="57">
+      <c r="D42" s="58">
         <v>13</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="58" t="s">
         <v>129</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -46788,24 +46790,24 @@
       </c>
     </row>
     <row r="43" spans="4:6">
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
       <c r="F44" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="75.5">
-      <c r="D45" s="57">
+      <c r="D45" s="58">
         <v>14</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="58" t="s">
         <v>134</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -46813,24 +46815,24 @@
       </c>
     </row>
     <row r="46" spans="4:6" ht="26">
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="4:6">
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="37.5">
-      <c r="D48" s="57">
+      <c r="D48" s="58">
         <v>15</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="58" t="s">
         <v>135</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -46838,24 +46840,24 @@
       </c>
     </row>
     <row r="49" spans="4:6" ht="26">
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="50" spans="4:6">
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="25">
-      <c r="D51" s="57">
+      <c r="D51" s="58">
         <v>16</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="58" t="s">
         <v>136</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -46863,24 +46865,24 @@
       </c>
     </row>
     <row r="52" spans="4:6">
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
       <c r="F52" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" spans="4:6">
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="25">
-      <c r="D54" s="57">
+      <c r="D54" s="58">
         <v>17</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="E54" s="58" t="s">
         <v>136</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -46888,24 +46890,24 @@
       </c>
     </row>
     <row r="55" spans="4:6">
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
       <c r="F55" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="56" spans="4:6">
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
       <c r="F56" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="4:6">
-      <c r="D57" s="57">
+      <c r="D57" s="58">
         <v>18</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="58" t="s">
         <v>79</v>
       </c>
       <c r="F57" s="13" t="s">
@@ -46913,24 +46915,24 @@
       </c>
     </row>
     <row r="58" spans="4:6">
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
       <c r="F58" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="59" spans="4:6">
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
       <c r="F59" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="34">
-      <c r="D60" s="57">
+      <c r="D60" s="58">
         <v>19</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="58" t="s">
         <v>79</v>
       </c>
       <c r="F60" s="16" t="s">
@@ -46938,24 +46940,24 @@
       </c>
     </row>
     <row r="61" spans="4:6">
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="4:6">
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
       <c r="F62" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="34">
-      <c r="D63" s="57">
+      <c r="D63" s="58">
         <v>20</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="58" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="16" t="s">
@@ -46963,24 +46965,24 @@
       </c>
     </row>
     <row r="64" spans="4:6">
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
       <c r="F64" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="65" spans="4:6">
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
       <c r="F65" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="34">
-      <c r="D66" s="57">
+      <c r="D66" s="58">
         <v>21</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="58" t="s">
         <v>81</v>
       </c>
       <c r="F66" s="16" t="s">
@@ -46988,24 +46990,24 @@
       </c>
     </row>
     <row r="67" spans="4:6" ht="26">
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
       <c r="F67" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="68" spans="4:6">
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
       <c r="F68" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="34">
-      <c r="D69" s="57">
+      <c r="D69" s="58">
         <v>22</v>
       </c>
-      <c r="E69" s="57" t="s">
+      <c r="E69" s="58" t="s">
         <v>90</v>
       </c>
       <c r="F69" s="16" t="s">
@@ -47013,24 +47015,24 @@
       </c>
     </row>
     <row r="70" spans="4:6" ht="26">
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
       <c r="F70" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
       <c r="F71" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="57">
+      <c r="D72" s="58">
         <v>23</v>
       </c>
-      <c r="E72" s="57" t="s">
+      <c r="E72" s="58" t="s">
         <v>112</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -47038,24 +47040,24 @@
       </c>
     </row>
     <row r="73" spans="4:6" ht="26">
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
       <c r="F73" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
       <c r="F74" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="57">
+      <c r="D75" s="58">
         <v>24</v>
       </c>
-      <c r="E75" s="57" t="s">
+      <c r="E75" s="58" t="s">
         <v>79</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -47063,24 +47065,24 @@
       </c>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
       <c r="F76" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
       <c r="F77" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="34">
-      <c r="D78" s="57">
+      <c r="D78" s="58">
         <v>25</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="E78" s="58" t="s">
         <v>79</v>
       </c>
       <c r="F78" s="16" t="s">
@@ -47088,55 +47090,21 @@
       </c>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
       <c r="F79" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
       <c r="F80" s="12" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -47153,6 +47121,40 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exerdProject/기능명세서.xlsx
+++ b/exerdProject/기능명세서.xlsx
@@ -11776,7 +11776,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F30C73-F9FC-4F38-BA21-6FBBC4E49CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11826,7 +11826,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB94D47-326F-4819-8971-AA13705ADEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11876,7 +11876,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C13640-91FA-4E80-824E-E4D9C44B5BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11926,7 +11926,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4A3605E-7644-45D4-8DE6-84FD004B3F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11976,7 +11976,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62DD966B-C63A-459D-B9C1-C4D087351D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12026,7 +12026,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1FEB21B-F265-43E5-BC0F-5A5C3072778D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12076,7 +12076,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82167F25-CE0C-4328-B74B-67C4A9238083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12126,7 +12126,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F83AB63C-A07B-4B7E-AB95-B45645F50602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12176,7 +12176,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{433948DD-2AD1-4AC9-B842-63A78A067A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12226,7 +12226,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{082B1200-C085-4FA7-BE82-27A6BEA6E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12276,7 +12276,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A074D7-8F92-4F0A-8B56-B91E2CBC3825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12326,7 +12326,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A77203-91F8-463E-8B1B-039C3269D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12376,7 +12376,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7118837-89E4-446F-97EF-B5D9FB7F2FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12426,7 +12426,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8737BCA7-F78B-4B91-A595-9653D635C7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12476,7 +12476,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2AF5EE9-C4ED-4408-A5F6-28A0E9417D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12526,7 +12526,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B138BD1-1A05-4487-B0A5-BADA3B2BF1C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12576,7 +12576,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8EEEE74-6CDD-4AD0-AA9E-B9957525B74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12626,7 +12626,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3433636-4576-43A7-8AD9-BB8E1A1E1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12676,7 +12676,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C4A0C2B-4389-4D57-A3E0-2D04338083F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12726,7 +12726,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BC0C82-65FA-44E5-A832-010C0FF640FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12776,7 +12776,7 @@
         <xdr:cNvPr id="43" name="그림 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F9904A-3271-4FA6-8901-1D90AB0455FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12826,7 +12826,7 @@
         <xdr:cNvPr id="45" name="그림 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0683093B-4E9B-475F-811C-7650A098856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12876,7 +12876,7 @@
         <xdr:cNvPr id="47" name="그림 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2009715D-AB1E-470A-AA53-9931BA579CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12926,7 +12926,7 @@
         <xdr:cNvPr id="49" name="그림 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FFBF34-399E-4097-A49B-AAEB71760605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="51" name="그림 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6310A5F-8868-44D1-AD9B-A1998B7650F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13266,7 +13266,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13276,8 +13276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13954,7 +13954,7 @@
       <c r="N20" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="41" t="s">
         <v>333</v>
       </c>
       <c r="P20" s="19"/>
@@ -47105,6 +47105,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E75:E77"/>
     <mergeCell ref="D78:D80"/>
@@ -47121,40 +47155,6 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
